--- a/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.796353696917322</v>
+        <v>1.796353696917038</v>
       </c>
       <c r="C2">
-        <v>0.3858376456180963</v>
+        <v>0.38583764561767</v>
       </c>
       <c r="D2">
-        <v>0.2037419864860084</v>
+        <v>0.20374198648598</v>
       </c>
       <c r="E2">
-        <v>0.2488289820010223</v>
+        <v>0.2488289820010863</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.893080931710557</v>
+        <v>8.893080931710671</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4821894112410305</v>
+        <v>0.4821894112410732</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.823783288255818</v>
+        <v>0.8237832882558536</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.528436517896949</v>
+        <v>1.528436517896665</v>
       </c>
       <c r="C3">
-        <v>0.3253794441740183</v>
+        <v>0.3253794441736204</v>
       </c>
       <c r="D3">
-        <v>0.174747734218812</v>
+        <v>0.1747477342186556</v>
       </c>
       <c r="E3">
-        <v>0.2146345738938678</v>
+        <v>0.2146345738939459</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.761735368779341</v>
+        <v>7.761735368779284</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7035090667422921</v>
+        <v>0.7035090667422992</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.369884769644472</v>
+        <v>1.369884769644329</v>
       </c>
       <c r="C4">
-        <v>0.2898067216656983</v>
+        <v>0.2898067216648457</v>
       </c>
       <c r="D4">
-        <v>0.1574366777773406</v>
+        <v>0.1574366777771843</v>
       </c>
       <c r="E4">
-        <v>0.1942126506135793</v>
+        <v>0.1942126506136148</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.084817597353293</v>
+        <v>7.084817597353208</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3656971856265443</v>
+        <v>0.3656971856265372</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6320837067072276</v>
+        <v>0.6320837067071921</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.306540088654771</v>
+        <v>1.306540088654714</v>
       </c>
       <c r="C5">
-        <v>0.275634584205406</v>
+        <v>0.2756345842045533</v>
       </c>
       <c r="D5">
-        <v>0.1504863049888598</v>
+        <v>0.1504863049887319</v>
       </c>
       <c r="E5">
-        <v>0.1860118141100457</v>
+        <v>0.1860118141100955</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.812672853162155</v>
+        <v>6.812672853162013</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6034915128075156</v>
+        <v>0.6034915128074871</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.296092087373637</v>
+        <v>1.296092087373864</v>
       </c>
       <c r="C6">
-        <v>0.273299137328209</v>
+        <v>0.2732991373282232</v>
       </c>
       <c r="D6">
-        <v>0.1493379573880418</v>
+        <v>0.1493379573882407</v>
       </c>
       <c r="E6">
-        <v>0.1846567775358707</v>
+        <v>0.1846567775358352</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3455729426513514</v>
+        <v>0.3455729426513656</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.598772306712732</v>
+        <v>0.5987723067126964</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.369025635331212</v>
+        <v>1.369025635330757</v>
       </c>
       <c r="C7">
-        <v>0.289614359256106</v>
+        <v>0.289614359254827</v>
       </c>
       <c r="D7">
-        <v>0.1573425455277402</v>
+        <v>0.1573425455282802</v>
       </c>
       <c r="E7">
-        <v>0.194101588563818</v>
+        <v>0.194101588563889</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.081133286491905</v>
+        <v>7.081133286491792</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3654628361542152</v>
+        <v>0.3654628361542009</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6316961372050613</v>
+        <v>0.6316961372050685</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.702592404262276</v>
+        <v>1.702592404262106</v>
       </c>
       <c r="C8">
-        <v>0.3646278058765802</v>
+        <v>0.3646278058756707</v>
       </c>
       <c r="D8">
-        <v>0.1936301457588456</v>
+        <v>0.1936301457589309</v>
       </c>
       <c r="E8">
-        <v>0.2369049220843777</v>
+        <v>0.236904922084392</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.498826863872267</v>
+        <v>8.498826863872154</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4565491821311269</v>
+        <v>0.4565491821311625</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7817483192792167</v>
+        <v>0.7817483192792096</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.416260708704556</v>
+        <v>2.416260708704613</v>
       </c>
       <c r="C9">
-        <v>0.5275564568579796</v>
+        <v>0.5275564568570701</v>
       </c>
       <c r="D9">
-        <v>0.2697327088506825</v>
+        <v>0.269732708851194</v>
       </c>
       <c r="E9">
-        <v>0.3266149035021186</v>
+        <v>0.3266149035020831</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.45978269660117</v>
+        <v>11.459782696601</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.652148556769923</v>
+        <v>0.6521485567699514</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.100326365776581</v>
+        <v>1.100326365776567</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.998064041377063</v>
+        <v>2.998064041377233</v>
       </c>
       <c r="C10">
-        <v>0.6630442264104488</v>
+        <v>0.6630442264105909</v>
       </c>
       <c r="D10">
-        <v>0.3304321270803428</v>
+        <v>0.3304321270801722</v>
       </c>
       <c r="E10">
-        <v>0.3981197621538968</v>
+        <v>0.3981197621538826</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.81376056881581</v>
+        <v>13.81376056881595</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8123836546252363</v>
+        <v>0.8123836546253429</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.3579465231999</v>
+        <v>1.357946523199871</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.281499130759698</v>
+        <v>3.281499130760153</v>
       </c>
       <c r="C11">
-        <v>0.7299527602890521</v>
+        <v>0.7299527602890237</v>
       </c>
       <c r="D11">
-        <v>0.3596045228363778</v>
+        <v>0.3596045228369178</v>
       </c>
       <c r="E11">
-        <v>0.4324709484906748</v>
+        <v>0.4324709484906961</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.9434154858647</v>
+        <v>14.94341548586482</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8907064676375356</v>
+        <v>0.8907064676374148</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.482841755657105</v>
+        <v>1.482841755657134</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.392219458961563</v>
+        <v>3.39221945896179</v>
       </c>
       <c r="C12">
-        <v>0.756253325244586</v>
+        <v>0.7562533252449555</v>
       </c>
       <c r="D12">
-        <v>0.3709322305930414</v>
+        <v>0.3709322305924161</v>
       </c>
       <c r="E12">
-        <v>0.4458070966700376</v>
+        <v>0.4458070966699736</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.38182327188491</v>
+        <v>15.38182327188548</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9213495173707358</v>
+        <v>0.9213495173706931</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.531527584010036</v>
+        <v>1.53152758401005</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.368210159490388</v>
+        <v>3.368210159490218</v>
       </c>
       <c r="C13">
-        <v>0.7505422948451042</v>
+        <v>0.7505422948463263</v>
       </c>
       <c r="D13">
-        <v>0.3684790675537499</v>
+        <v>0.3684790675538636</v>
       </c>
       <c r="E13">
-        <v>0.442919098090016</v>
+        <v>0.4429190980900657</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9147024198196405</v>
+        <v>0.9147024198196334</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.52097506813557</v>
+        <v>1.520975068135598</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.290535630369334</v>
+        <v>3.290535630369106</v>
       </c>
       <c r="C14">
-        <v>0.7320958349805835</v>
+        <v>0.7320958349806688</v>
       </c>
       <c r="D14">
-        <v>0.3605304597570154</v>
+        <v>0.3605304597568733</v>
       </c>
       <c r="E14">
-        <v>0.4335611095190615</v>
+        <v>0.4335611095191254</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14.97925608175245</v>
+        <v>14.979256081752</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8932064184814763</v>
+        <v>0.8932064184814479</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.486817414165159</v>
+        <v>1.486817414165145</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.243422685644475</v>
+        <v>3.243422685644532</v>
       </c>
       <c r="C15">
-        <v>0.7209293815137983</v>
+        <v>0.7209293815132298</v>
       </c>
       <c r="D15">
-        <v>0.3557001837644407</v>
+        <v>0.3557001837644833</v>
       </c>
       <c r="E15">
-        <v>0.4278740335295339</v>
+        <v>0.4278740335295623</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.79227916098614</v>
+        <v>14.79227916098608</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8801745508052079</v>
+        <v>0.8801745508051937</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.466085609220812</v>
+        <v>1.466085609220841</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.97997375497755</v>
+        <v>2.979973754977891</v>
       </c>
       <c r="C16">
-        <v>0.6587940904245499</v>
+        <v>0.6587940904250331</v>
       </c>
       <c r="D16">
-        <v>0.3285615523145964</v>
+        <v>0.3285615523141416</v>
       </c>
       <c r="E16">
-        <v>0.3959168000193571</v>
+        <v>0.3959168000194211</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.74129264146487</v>
+        <v>13.74129264146512</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8073905608643059</v>
+        <v>0.8073905608643344</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.823603458390437</v>
+        <v>2.823603458390721</v>
       </c>
       <c r="C17">
-        <v>0.622157180199423</v>
+        <v>0.6221571801994799</v>
       </c>
       <c r="D17">
-        <v>0.3123485003201125</v>
+        <v>0.3123485003204536</v>
       </c>
       <c r="E17">
-        <v>0.3768212082021876</v>
+        <v>0.3768212082022586</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.11300107132365</v>
+        <v>13.11300107132359</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.764260017666814</v>
+        <v>0.7642600176668566</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.280877074915523</v>
+        <v>1.280877074915509</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.735380199378142</v>
+        <v>2.735380199378085</v>
       </c>
       <c r="C18">
-        <v>0.6015661361774391</v>
+        <v>0.6015661361775528</v>
       </c>
       <c r="D18">
-        <v>0.3031659525498753</v>
+        <v>0.3031659525512254</v>
       </c>
       <c r="E18">
-        <v>0.3660048073021045</v>
+        <v>0.3660048073022253</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.75700438455215</v>
+        <v>12.75700438455166</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.241845845945846</v>
+        <v>1.241845845945903</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.705785833941491</v>
+        <v>2.705785833941377</v>
       </c>
       <c r="C19">
-        <v>0.5946716414005095</v>
+        <v>0.5946716414004811</v>
       </c>
       <c r="D19">
-        <v>0.3000799133174468</v>
+        <v>0.3000799133179441</v>
       </c>
       <c r="E19">
-        <v>0.3623694603744738</v>
+        <v>0.3623694603744454</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.63733599143993</v>
+        <v>12.63733599143998</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7317975711190812</v>
+        <v>0.731797571119067</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.228744021157794</v>
+        <v>1.22874402115783</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.84006719976162</v>
+        <v>2.840067199761734</v>
       </c>
       <c r="C20">
-        <v>0.6260060840955362</v>
+        <v>0.6260060840955077</v>
       </c>
       <c r="D20">
-        <v>0.3140592649101706</v>
+        <v>0.3140592649094032</v>
       </c>
       <c r="E20">
-        <v>0.3788362674491381</v>
+        <v>0.3788362674490457</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.17931286667715</v>
+        <v>13.17931286667724</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7687986414554189</v>
+        <v>0.7687986414553905</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.288156527284073</v>
+        <v>1.288156527284059</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.313252133311266</v>
+        <v>3.313252133311096</v>
       </c>
       <c r="C21">
-        <v>0.7374859396792885</v>
+        <v>0.7374859396788906</v>
       </c>
       <c r="D21">
-        <v>0.3628570188741378</v>
+        <v>0.3628570188753173</v>
       </c>
       <c r="E21">
-        <v>0.4363002658380779</v>
+        <v>0.436300265838085</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.06930730861342</v>
+        <v>15.06930730861336</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8994917300180276</v>
+        <v>0.8994917300179779</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.642725632194811</v>
+        <v>3.642725632194981</v>
       </c>
       <c r="C22">
-        <v>0.8161011906871067</v>
+        <v>0.8161011906883004</v>
       </c>
       <c r="D22">
         <v>0.3964229768624534</v>
       </c>
       <c r="E22">
-        <v>0.4758123264329228</v>
+        <v>0.4758123264328944</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.36793863506813</v>
+        <v>16.36793863506836</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9907785377078469</v>
+        <v>0.9907785377078966</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.641472354047266</v>
+        <v>1.641472354047195</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.464751118373272</v>
+        <v>3.46475111837367</v>
       </c>
       <c r="C23">
         <v>0.7735327144050075</v>
       </c>
       <c r="D23">
-        <v>0.3783324593667032</v>
+        <v>0.3783324593671153</v>
       </c>
       <c r="E23">
-        <v>0.4545186564307073</v>
+        <v>0.4545186564306221</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.66816259305796</v>
+        <v>15.66816259305801</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9414379103324038</v>
+        <v>0.9414379103324322</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.563390426957156</v>
+        <v>1.56339042695717</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.832618771219074</v>
+        <v>2.832618771219018</v>
       </c>
       <c r="C24">
-        <v>0.6242645391808708</v>
+        <v>0.6242645391808992</v>
       </c>
       <c r="D24">
-        <v>0.3132854007460395</v>
+        <v>0.3132854007464658</v>
       </c>
       <c r="E24">
-        <v>0.3779247596006741</v>
+        <v>0.377924759600667</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.1493172123144</v>
+        <v>13.14931721231437</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.76674523266189</v>
+        <v>0.7667452326618118</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.284863368663224</v>
+        <v>1.284863368663181</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.214886902487478</v>
+        <v>2.214886902487706</v>
       </c>
       <c r="C25">
-        <v>0.4812286097842957</v>
+        <v>0.4812286097848357</v>
       </c>
       <c r="D25">
-        <v>0.2484529708725347</v>
+        <v>0.2484529708723642</v>
       </c>
       <c r="E25">
-        <v>0.3015372860762326</v>
+        <v>0.3015372860761758</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.63313209193254</v>
+        <v>10.63313209193248</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5968529156729687</v>
+        <v>0.5968529156729261</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.010740045559359</v>
+        <v>1.010740045559352</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.796353696917038</v>
+        <v>1.796353696917322</v>
       </c>
       <c r="C2">
-        <v>0.38583764561767</v>
+        <v>0.3858376456180963</v>
       </c>
       <c r="D2">
-        <v>0.20374198648598</v>
+        <v>0.2037419864860084</v>
       </c>
       <c r="E2">
-        <v>0.2488289820010863</v>
+        <v>0.2488289820010223</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.893080931710671</v>
+        <v>8.893080931710557</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4821894112410732</v>
+        <v>0.4821894112410305</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8237832882558536</v>
+        <v>0.823783288255818</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.528436517896665</v>
+        <v>1.528436517896949</v>
       </c>
       <c r="C3">
-        <v>0.3253794441736204</v>
+        <v>0.3253794441740183</v>
       </c>
       <c r="D3">
-        <v>0.1747477342186556</v>
+        <v>0.174747734218812</v>
       </c>
       <c r="E3">
-        <v>0.2146345738939459</v>
+        <v>0.2146345738938678</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.761735368779284</v>
+        <v>7.761735368779341</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7035090667422992</v>
+        <v>0.7035090667422921</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.369884769644329</v>
+        <v>1.369884769644472</v>
       </c>
       <c r="C4">
-        <v>0.2898067216648457</v>
+        <v>0.2898067216656983</v>
       </c>
       <c r="D4">
-        <v>0.1574366777771843</v>
+        <v>0.1574366777773406</v>
       </c>
       <c r="E4">
-        <v>0.1942126506136148</v>
+        <v>0.1942126506135793</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.084817597353208</v>
+        <v>7.084817597353293</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3656971856265372</v>
+        <v>0.3656971856265443</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6320837067071921</v>
+        <v>0.6320837067072276</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.306540088654714</v>
+        <v>1.306540088654771</v>
       </c>
       <c r="C5">
-        <v>0.2756345842045533</v>
+        <v>0.275634584205406</v>
       </c>
       <c r="D5">
-        <v>0.1504863049887319</v>
+        <v>0.1504863049888598</v>
       </c>
       <c r="E5">
-        <v>0.1860118141100955</v>
+        <v>0.1860118141100457</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.812672853162013</v>
+        <v>6.812672853162155</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6034915128074871</v>
+        <v>0.6034915128075156</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.296092087373864</v>
+        <v>1.296092087373637</v>
       </c>
       <c r="C6">
-        <v>0.2732991373282232</v>
+        <v>0.273299137328209</v>
       </c>
       <c r="D6">
-        <v>0.1493379573882407</v>
+        <v>0.1493379573880418</v>
       </c>
       <c r="E6">
-        <v>0.1846567775358352</v>
+        <v>0.1846567775358707</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3455729426513656</v>
+        <v>0.3455729426513514</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5987723067126964</v>
+        <v>0.598772306712732</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.369025635330757</v>
+        <v>1.369025635331212</v>
       </c>
       <c r="C7">
-        <v>0.289614359254827</v>
+        <v>0.289614359256106</v>
       </c>
       <c r="D7">
-        <v>0.1573425455282802</v>
+        <v>0.1573425455277402</v>
       </c>
       <c r="E7">
-        <v>0.194101588563889</v>
+        <v>0.194101588563818</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.081133286491792</v>
+        <v>7.081133286491905</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3654628361542009</v>
+        <v>0.3654628361542152</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6316961372050685</v>
+        <v>0.6316961372050613</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.702592404262106</v>
+        <v>1.702592404262276</v>
       </c>
       <c r="C8">
-        <v>0.3646278058756707</v>
+        <v>0.3646278058765802</v>
       </c>
       <c r="D8">
-        <v>0.1936301457589309</v>
+        <v>0.1936301457588456</v>
       </c>
       <c r="E8">
-        <v>0.236904922084392</v>
+        <v>0.2369049220843777</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.498826863872154</v>
+        <v>8.498826863872267</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4565491821311625</v>
+        <v>0.4565491821311269</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7817483192792096</v>
+        <v>0.7817483192792167</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.416260708704613</v>
+        <v>2.416260708704556</v>
       </c>
       <c r="C9">
-        <v>0.5275564568570701</v>
+        <v>0.5275564568579796</v>
       </c>
       <c r="D9">
-        <v>0.269732708851194</v>
+        <v>0.2697327088506825</v>
       </c>
       <c r="E9">
-        <v>0.3266149035020831</v>
+        <v>0.3266149035021186</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.459782696601</v>
+        <v>11.45978269660117</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6521485567699514</v>
+        <v>0.652148556769923</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.100326365776567</v>
+        <v>1.100326365776581</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.998064041377233</v>
+        <v>2.998064041377063</v>
       </c>
       <c r="C10">
-        <v>0.6630442264105909</v>
+        <v>0.6630442264104488</v>
       </c>
       <c r="D10">
-        <v>0.3304321270801722</v>
+        <v>0.3304321270803428</v>
       </c>
       <c r="E10">
-        <v>0.3981197621538826</v>
+        <v>0.3981197621538968</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.81376056881595</v>
+        <v>13.81376056881581</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8123836546253429</v>
+        <v>0.8123836546252363</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.357946523199871</v>
+        <v>1.3579465231999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.281499130760153</v>
+        <v>3.281499130759698</v>
       </c>
       <c r="C11">
-        <v>0.7299527602890237</v>
+        <v>0.7299527602890521</v>
       </c>
       <c r="D11">
-        <v>0.3596045228369178</v>
+        <v>0.3596045228363778</v>
       </c>
       <c r="E11">
-        <v>0.4324709484906961</v>
+        <v>0.4324709484906748</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.94341548586482</v>
+        <v>14.9434154858647</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8907064676374148</v>
+        <v>0.8907064676375356</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.482841755657134</v>
+        <v>1.482841755657105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.39221945896179</v>
+        <v>3.392219458961563</v>
       </c>
       <c r="C12">
-        <v>0.7562533252449555</v>
+        <v>0.756253325244586</v>
       </c>
       <c r="D12">
-        <v>0.3709322305924161</v>
+        <v>0.3709322305930414</v>
       </c>
       <c r="E12">
-        <v>0.4458070966699736</v>
+        <v>0.4458070966700376</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.38182327188548</v>
+        <v>15.38182327188491</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9213495173706931</v>
+        <v>0.9213495173707358</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.53152758401005</v>
+        <v>1.531527584010036</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.368210159490218</v>
+        <v>3.368210159490388</v>
       </c>
       <c r="C13">
-        <v>0.7505422948463263</v>
+        <v>0.7505422948451042</v>
       </c>
       <c r="D13">
-        <v>0.3684790675538636</v>
+        <v>0.3684790675537499</v>
       </c>
       <c r="E13">
-        <v>0.4429190980900657</v>
+        <v>0.442919098090016</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9147024198196334</v>
+        <v>0.9147024198196405</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.520975068135598</v>
+        <v>1.52097506813557</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.290535630369106</v>
+        <v>3.290535630369334</v>
       </c>
       <c r="C14">
-        <v>0.7320958349806688</v>
+        <v>0.7320958349805835</v>
       </c>
       <c r="D14">
-        <v>0.3605304597568733</v>
+        <v>0.3605304597570154</v>
       </c>
       <c r="E14">
-        <v>0.4335611095191254</v>
+        <v>0.4335611095190615</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14.979256081752</v>
+        <v>14.97925608175245</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8932064184814479</v>
+        <v>0.8932064184814763</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.486817414165145</v>
+        <v>1.486817414165159</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.243422685644532</v>
+        <v>3.243422685644475</v>
       </c>
       <c r="C15">
-        <v>0.7209293815132298</v>
+        <v>0.7209293815137983</v>
       </c>
       <c r="D15">
-        <v>0.3557001837644833</v>
+        <v>0.3557001837644407</v>
       </c>
       <c r="E15">
-        <v>0.4278740335295623</v>
+        <v>0.4278740335295339</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.79227916098608</v>
+        <v>14.79227916098614</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8801745508051937</v>
+        <v>0.8801745508052079</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.466085609220841</v>
+        <v>1.466085609220812</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.979973754977891</v>
+        <v>2.97997375497755</v>
       </c>
       <c r="C16">
-        <v>0.6587940904250331</v>
+        <v>0.6587940904245499</v>
       </c>
       <c r="D16">
-        <v>0.3285615523141416</v>
+        <v>0.3285615523145964</v>
       </c>
       <c r="E16">
-        <v>0.3959168000194211</v>
+        <v>0.3959168000193571</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.74129264146512</v>
+        <v>13.74129264146487</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8073905608643344</v>
+        <v>0.8073905608643059</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.823603458390721</v>
+        <v>2.823603458390437</v>
       </c>
       <c r="C17">
-        <v>0.6221571801994799</v>
+        <v>0.622157180199423</v>
       </c>
       <c r="D17">
-        <v>0.3123485003204536</v>
+        <v>0.3123485003201125</v>
       </c>
       <c r="E17">
-        <v>0.3768212082022586</v>
+        <v>0.3768212082021876</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.11300107132359</v>
+        <v>13.11300107132365</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7642600176668566</v>
+        <v>0.764260017666814</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.280877074915509</v>
+        <v>1.280877074915523</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.735380199378085</v>
+        <v>2.735380199378142</v>
       </c>
       <c r="C18">
-        <v>0.6015661361775528</v>
+        <v>0.6015661361774391</v>
       </c>
       <c r="D18">
-        <v>0.3031659525512254</v>
+        <v>0.3031659525498753</v>
       </c>
       <c r="E18">
-        <v>0.3660048073022253</v>
+        <v>0.3660048073021045</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.75700438455166</v>
+        <v>12.75700438455215</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.241845845945903</v>
+        <v>1.241845845945846</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.705785833941377</v>
+        <v>2.705785833941491</v>
       </c>
       <c r="C19">
-        <v>0.5946716414004811</v>
+        <v>0.5946716414005095</v>
       </c>
       <c r="D19">
-        <v>0.3000799133179441</v>
+        <v>0.3000799133174468</v>
       </c>
       <c r="E19">
-        <v>0.3623694603744454</v>
+        <v>0.3623694603744738</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.63733599143998</v>
+        <v>12.63733599143993</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.731797571119067</v>
+        <v>0.7317975711190812</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.22874402115783</v>
+        <v>1.228744021157794</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.840067199761734</v>
+        <v>2.84006719976162</v>
       </c>
       <c r="C20">
-        <v>0.6260060840955077</v>
+        <v>0.6260060840955362</v>
       </c>
       <c r="D20">
-        <v>0.3140592649094032</v>
+        <v>0.3140592649101706</v>
       </c>
       <c r="E20">
-        <v>0.3788362674490457</v>
+        <v>0.3788362674491381</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.17931286667724</v>
+        <v>13.17931286667715</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7687986414553905</v>
+        <v>0.7687986414554189</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.288156527284059</v>
+        <v>1.288156527284073</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.313252133311096</v>
+        <v>3.313252133311266</v>
       </c>
       <c r="C21">
-        <v>0.7374859396788906</v>
+        <v>0.7374859396792885</v>
       </c>
       <c r="D21">
-        <v>0.3628570188753173</v>
+        <v>0.3628570188741378</v>
       </c>
       <c r="E21">
-        <v>0.436300265838085</v>
+        <v>0.4363002658380779</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.06930730861336</v>
+        <v>15.06930730861342</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8994917300179779</v>
+        <v>0.8994917300180276</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.642725632194981</v>
+        <v>3.642725632194811</v>
       </c>
       <c r="C22">
-        <v>0.8161011906883004</v>
+        <v>0.8161011906871067</v>
       </c>
       <c r="D22">
         <v>0.3964229768624534</v>
       </c>
       <c r="E22">
-        <v>0.4758123264328944</v>
+        <v>0.4758123264329228</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.36793863506836</v>
+        <v>16.36793863506813</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9907785377078966</v>
+        <v>0.9907785377078469</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.641472354047195</v>
+        <v>1.641472354047266</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.46475111837367</v>
+        <v>3.464751118373272</v>
       </c>
       <c r="C23">
         <v>0.7735327144050075</v>
       </c>
       <c r="D23">
-        <v>0.3783324593671153</v>
+        <v>0.3783324593667032</v>
       </c>
       <c r="E23">
-        <v>0.4545186564306221</v>
+        <v>0.4545186564307073</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.66816259305801</v>
+        <v>15.66816259305796</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9414379103324322</v>
+        <v>0.9414379103324038</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.56339042695717</v>
+        <v>1.563390426957156</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.832618771219018</v>
+        <v>2.832618771219074</v>
       </c>
       <c r="C24">
-        <v>0.6242645391808992</v>
+        <v>0.6242645391808708</v>
       </c>
       <c r="D24">
-        <v>0.3132854007464658</v>
+        <v>0.3132854007460395</v>
       </c>
       <c r="E24">
-        <v>0.377924759600667</v>
+        <v>0.3779247596006741</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.14931721231437</v>
+        <v>13.1493172123144</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7667452326618118</v>
+        <v>0.76674523266189</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.284863368663181</v>
+        <v>1.284863368663224</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.214886902487706</v>
+        <v>2.214886902487478</v>
       </c>
       <c r="C25">
-        <v>0.4812286097848357</v>
+        <v>0.4812286097842957</v>
       </c>
       <c r="D25">
-        <v>0.2484529708723642</v>
+        <v>0.2484529708725347</v>
       </c>
       <c r="E25">
-        <v>0.3015372860761758</v>
+        <v>0.3015372860762326</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.63313209193248</v>
+        <v>10.63313209193254</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5968529156729261</v>
+        <v>0.5968529156729687</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.010740045559352</v>
+        <v>1.010740045559359</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.796353696917322</v>
+        <v>1.795810786090527</v>
       </c>
       <c r="C2">
-        <v>0.3858376456180963</v>
+        <v>0.3855606775183844</v>
       </c>
       <c r="D2">
-        <v>0.2037419864860084</v>
+        <v>0.2037147870257741</v>
       </c>
       <c r="E2">
-        <v>0.2488289820010223</v>
+        <v>0.248792922240419</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.893080931710557</v>
+        <v>2.902498318368458</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.940796971421975</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4821894112410305</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4820016277307673</v>
       </c>
       <c r="L2">
-        <v>0.823783288255818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.8236379980901702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.528436517896949</v>
+        <v>1.528091662713706</v>
       </c>
       <c r="C3">
-        <v>0.3253794441740183</v>
+        <v>0.3251884742656443</v>
       </c>
       <c r="D3">
-        <v>0.174747734218812</v>
+        <v>0.1747298158454527</v>
       </c>
       <c r="E3">
-        <v>0.2146345738938678</v>
+        <v>0.2146076167554725</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.761735368779341</v>
+        <v>2.525143075194791</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.194333080023682</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4089678128518344</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.408845053854364</v>
       </c>
       <c r="L3">
-        <v>0.7035090667422921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.7034175101383013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.369884769644472</v>
+        <v>1.369638157324147</v>
       </c>
       <c r="C4">
-        <v>0.2898067216656983</v>
+        <v>0.2896606517505944</v>
       </c>
       <c r="D4">
-        <v>0.1574366777773406</v>
+        <v>0.1574233839580188</v>
       </c>
       <c r="E4">
-        <v>0.1942126506135793</v>
+        <v>0.194190689177546</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.084817597353293</v>
+        <v>2.29931300183668</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.747722873512117</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3656971856265443</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3656072047399235</v>
       </c>
       <c r="L4">
-        <v>0.6320837067072276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6320184953179577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.306540088654771</v>
+        <v>1.306328655878133</v>
       </c>
       <c r="C5">
-        <v>0.275634584205406</v>
+        <v>0.2755051784206302</v>
       </c>
       <c r="D5">
-        <v>0.1504863049888598</v>
+        <v>0.1504746809515467</v>
       </c>
       <c r="E5">
-        <v>0.1860118141100457</v>
+        <v>0.1859917813073437</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.812672853162155</v>
+        <v>2.208510270906942</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.568176418220844</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3484217066937916</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3483435995734894</v>
       </c>
       <c r="L5">
-        <v>0.6034915128075156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.6034356778782524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.296092087373637</v>
+        <v>1.295886229205905</v>
       </c>
       <c r="C6">
-        <v>0.273299137328209</v>
+        <v>0.2731724091413241</v>
       </c>
       <c r="D6">
-        <v>0.1493379573880418</v>
+        <v>0.1493265990560957</v>
       </c>
       <c r="E6">
-        <v>0.1846567775358707</v>
+        <v>0.1846370595620925</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.767686899370176</v>
+        <v>2.193499785862883</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.538497533072615</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3455729426513514</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3454967256536534</v>
       </c>
       <c r="L6">
-        <v>0.598772306712732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.5987179546180172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.369025635331212</v>
+        <v>1.368779515900997</v>
       </c>
       <c r="C7">
-        <v>0.289614359256106</v>
+        <v>0.2894685202687697</v>
       </c>
       <c r="D7">
-        <v>0.1573425455277402</v>
+        <v>0.1573292750327511</v>
       </c>
       <c r="E7">
-        <v>0.194101588563818</v>
+        <v>0.194079653523282</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.081133286491905</v>
+        <v>2.298083753596899</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.74529213545415</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3654628361542152</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.365373021035353</v>
       </c>
       <c r="L7">
-        <v>0.6316961372050613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6316310574059969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.702592404262276</v>
+        <v>1.70212331000053</v>
       </c>
       <c r="C8">
-        <v>0.3646278058765802</v>
+        <v>0.3643823654487051</v>
       </c>
       <c r="D8">
-        <v>0.1936301457588456</v>
+        <v>0.1936064064434078</v>
       </c>
       <c r="E8">
-        <v>0.2369049220843777</v>
+        <v>0.2368721526250042</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.498826863872267</v>
+        <v>2.771007111092558</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.680663692127524</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4565491821311269</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4563855108204038</v>
       </c>
       <c r="L8">
-        <v>0.7817483192792167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.7816231448421362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.416260708704556</v>
+        <v>2.415109888502514</v>
       </c>
       <c r="C9">
-        <v>0.5275564568579796</v>
+        <v>0.5270325293418523</v>
       </c>
       <c r="D9">
-        <v>0.2697327088506825</v>
+        <v>0.2696766354025897</v>
       </c>
       <c r="E9">
-        <v>0.3266149035021186</v>
+        <v>0.3265535979972114</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.45978269660117</v>
+        <v>3.758301199226594</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.634362147751688</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.652148556769923</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6517651915843174</v>
       </c>
       <c r="L9">
-        <v>1.100326365776581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.100012212982648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.998064041377063</v>
+        <v>2.996151280443542</v>
       </c>
       <c r="C10">
-        <v>0.6630442264104488</v>
+        <v>0.6622263507982495</v>
       </c>
       <c r="D10">
-        <v>0.3304321270803428</v>
+        <v>0.3303387074083162</v>
       </c>
       <c r="E10">
-        <v>0.3981197621538968</v>
+        <v>0.3980278216564415</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.81376056881581</v>
+        <v>4.542850444087208</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.18748950892865</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8123836546252363</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.811758866044471</v>
       </c>
       <c r="L10">
-        <v>1.3579465231999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.357414599467177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.281499130759698</v>
+        <v>3.279145079155001</v>
       </c>
       <c r="C11">
-        <v>0.7299527602890521</v>
+        <v>0.7289687237734483</v>
       </c>
       <c r="D11">
-        <v>0.3596045228363778</v>
+        <v>0.3594889273783508</v>
       </c>
       <c r="E11">
-        <v>0.4324709484906748</v>
+        <v>0.4323610647179734</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.9434154858647</v>
+        <v>4.919245971146552</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.932758357627392</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8907064676375356</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8899428403055438</v>
       </c>
       <c r="L11">
-        <v>1.482841755657105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.482181280857844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.392219458961563</v>
+        <v>3.389679989970773</v>
       </c>
       <c r="C12">
-        <v>0.756253325244586</v>
+        <v>0.7552000958054919</v>
       </c>
       <c r="D12">
-        <v>0.3709322305930414</v>
+        <v>0.3708072090271912</v>
       </c>
       <c r="E12">
-        <v>0.4458070966700376</v>
+        <v>0.4456895928883</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.38182327188491</v>
+        <v>5.065303441876097</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.22197462600963</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9213495173707358</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9205277055896772</v>
       </c>
       <c r="L12">
-        <v>1.531527584010036</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.530812635107011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.368210159490388</v>
+        <v>3.365711531499812</v>
       </c>
       <c r="C13">
-        <v>0.7505422948451042</v>
+        <v>0.7495042782615542</v>
       </c>
       <c r="D13">
-        <v>0.3684790675537499</v>
+        <v>0.3683561275257716</v>
       </c>
       <c r="E13">
-        <v>0.442919098090016</v>
+        <v>0.4428032772263037</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.28689092763568</v>
+        <v>5.033677166464486</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.15934883576847</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9147024198196405</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9138934172351156</v>
       </c>
       <c r="L13">
-        <v>1.52097506813557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.520272140241602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.290535630369334</v>
+        <v>3.288166724425253</v>
       </c>
       <c r="C14">
-        <v>0.7320958349805835</v>
+        <v>0.7311062429133131</v>
       </c>
       <c r="D14">
-        <v>0.3605304597570154</v>
+        <v>0.3604141114365405</v>
       </c>
       <c r="E14">
-        <v>0.4335611095190615</v>
+        <v>0.4334506171839294</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14.97925608175245</v>
+        <v>4.931186798215208</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.956402629738648</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8932064184814763</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8924381268221069</v>
       </c>
       <c r="L14">
-        <v>1.486817414165159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.486152584935283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.243422685644475</v>
+        <v>3.241130685137023</v>
       </c>
       <c r="C15">
-        <v>0.7209293815137983</v>
+        <v>0.7199685765694994</v>
       </c>
       <c r="D15">
-        <v>0.3557001837644407</v>
+        <v>0.355587728852683</v>
       </c>
       <c r="E15">
-        <v>0.4278740335295339</v>
+        <v>0.4277666884489406</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.79227916098614</v>
+        <v>4.868891923874344</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.83305210522991</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8801745508052079</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.879430413716463</v>
       </c>
       <c r="L15">
-        <v>1.466085609220812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.465443305647725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.97997375497755</v>
+        <v>2.978087563652423</v>
       </c>
       <c r="C16">
-        <v>0.6587940904245499</v>
+        <v>0.6579862961771425</v>
       </c>
       <c r="D16">
-        <v>0.3285615523145964</v>
+        <v>0.3284694556746217</v>
       </c>
       <c r="E16">
-        <v>0.3959168000193571</v>
+        <v>0.3958259324370985</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.74129264146487</v>
+        <v>4.518702219290191</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.139678425531542</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8073905608643059</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8067741502784642</v>
       </c>
       <c r="L16">
-        <v>1.349961950016208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.349437713904123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.823603458390437</v>
+        <v>2.821939114306758</v>
       </c>
       <c r="C17">
-        <v>0.622157180199423</v>
+        <v>0.6214339662398629</v>
       </c>
       <c r="D17">
-        <v>0.3123485003201125</v>
+        <v>0.3122673940388268</v>
       </c>
       <c r="E17">
-        <v>0.3768212082021876</v>
+        <v>0.3767392745673845</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.11300107132365</v>
+        <v>4.309327407262657</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.725152355830858</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.764260017666814</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7637136581993786</v>
       </c>
       <c r="L17">
-        <v>1.280877074915523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.28041677945258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.735380199378142</v>
+        <v>2.733834902240403</v>
       </c>
       <c r="C18">
-        <v>0.6015661361774391</v>
+        <v>0.6008886392164356</v>
       </c>
       <c r="D18">
-        <v>0.3031659525498753</v>
+        <v>0.3030907011963535</v>
       </c>
       <c r="E18">
-        <v>0.3660048073021045</v>
+        <v>0.3659276544805365</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.75700438455215</v>
+        <v>4.190684219379619</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.490272034672444</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7399489788794114</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7394402895475167</v>
       </c>
       <c r="L18">
-        <v>1.241845845945846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.241419671560351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.705785833941491</v>
+        <v>2.704279492583964</v>
       </c>
       <c r="C19">
-        <v>0.5946716414005095</v>
+        <v>0.5940091602789153</v>
       </c>
       <c r="D19">
-        <v>0.3000799133174468</v>
+        <v>0.3000065712347038</v>
       </c>
       <c r="E19">
-        <v>0.3623694603744738</v>
+        <v>0.3622938708780694</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.63733599143993</v>
+        <v>4.150800772095749</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.411316153032828</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7317975711190812</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7313012220401163</v>
       </c>
       <c r="L19">
-        <v>1.228744021157794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.228328982013458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.84006719976162</v>
+        <v>2.838380153801836</v>
       </c>
       <c r="C20">
-        <v>0.6260060840955362</v>
+        <v>0.6252741796915586</v>
       </c>
       <c r="D20">
-        <v>0.3140592649101706</v>
+        <v>0.313977038681827</v>
       </c>
       <c r="E20">
-        <v>0.3788362674491381</v>
+        <v>0.3787534213025907</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.17931286667715</v>
+        <v>4.331426434310742</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.768903294467037</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7687986414554189</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7682451050715216</v>
       </c>
       <c r="L20">
-        <v>1.288156527284073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.287689709585663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.313252133311266</v>
+        <v>3.310845667856654</v>
       </c>
       <c r="C21">
-        <v>0.7374859396792885</v>
+        <v>0.7364823100947149</v>
       </c>
       <c r="D21">
-        <v>0.3628570188741378</v>
+        <v>0.3627387651297767</v>
       </c>
       <c r="E21">
-        <v>0.4363002658380779</v>
+        <v>0.4361882332882843</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.06930730861342</v>
+        <v>4.961188407417694</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.01580974142979</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8994917300180276</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8987116468980645</v>
       </c>
       <c r="L21">
-        <v>1.496809982339329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.496134135257918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.642725632194811</v>
+        <v>3.63973866199882</v>
       </c>
       <c r="C22">
-        <v>0.8161011906871067</v>
+        <v>0.8148821923914511</v>
       </c>
       <c r="D22">
-        <v>0.3964229768624534</v>
+        <v>0.3962749597329775</v>
       </c>
       <c r="E22">
-        <v>0.4758123264329228</v>
+        <v>0.4756762066958586</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.36793863506813</v>
+        <v>5.393795271571548</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.87247590845982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9907785377078469</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.989816598677379</v>
       </c>
       <c r="L22">
-        <v>1.641472354047266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.640624904194397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.464751118373272</v>
+        <v>3.46208611530443</v>
       </c>
       <c r="C23">
-        <v>0.7735327144050075</v>
+        <v>0.7724328179166093</v>
       </c>
       <c r="D23">
-        <v>0.3783324593667032</v>
+        <v>0.3782010213940055</v>
       </c>
       <c r="E23">
-        <v>0.4545186564307073</v>
+        <v>0.4543959634045223</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.66816259305796</v>
+        <v>5.160693219196617</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.41086668564003</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9414379103324038</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9405767493166977</v>
       </c>
       <c r="L23">
-        <v>1.563390426957156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.562638451937559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.832618771219074</v>
+        <v>2.830942014910875</v>
       </c>
       <c r="C24">
-        <v>0.6242645391808708</v>
+        <v>0.6235365726757323</v>
       </c>
       <c r="D24">
-        <v>0.3132854007460395</v>
+        <v>0.3132036822705544</v>
       </c>
       <c r="E24">
-        <v>0.3779247596006741</v>
+        <v>0.3778423270906188</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.1493172123144</v>
+        <v>4.32143013007402</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.749112894849105</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.76674523266189</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7661949489695417</v>
       </c>
       <c r="L24">
-        <v>1.284863368663224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.284399507779725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.214886902487478</v>
+        <v>2.213956338395803</v>
       </c>
       <c r="C25">
-        <v>0.4812286097842957</v>
+        <v>0.4807922627977916</v>
       </c>
       <c r="D25">
-        <v>0.2484529708725347</v>
+        <v>0.2484074515170249</v>
       </c>
       <c r="E25">
-        <v>0.3015372860762326</v>
+        <v>0.3014849152874461</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.63313209193254</v>
+        <v>3.482717987937946</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.088921869743018</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5968529156729687</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5965399635392359</v>
       </c>
       <c r="L25">
-        <v>1.010740045559359</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.010487663787465</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.795810786090527</v>
+        <v>2.399734666787253</v>
       </c>
       <c r="C2">
-        <v>0.3855606775183844</v>
+        <v>0.5402571036436541</v>
       </c>
       <c r="D2">
-        <v>0.2037147870257741</v>
+        <v>0.3680738919979092</v>
       </c>
       <c r="E2">
-        <v>0.248792922240419</v>
+        <v>0.1135118653390066</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.902498318368458</v>
+        <v>0.0008208040386831219</v>
       </c>
       <c r="H2">
-        <v>5.940796971421975</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.03834240379608644</v>
       </c>
       <c r="K2">
-        <v>0.4820016277307673</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8236379980901702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.7502901687415218</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.133908343039195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.528091662713706</v>
+        <v>2.071944434851616</v>
       </c>
       <c r="C3">
-        <v>0.3251884742656443</v>
+        <v>0.460766217697909</v>
       </c>
       <c r="D3">
-        <v>0.1747298158454527</v>
+        <v>0.3376075784020856</v>
       </c>
       <c r="E3">
-        <v>0.2146076167554725</v>
+        <v>0.1054423143603387</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.525143075194791</v>
+        <v>0.0008345310323755542</v>
       </c>
       <c r="H3">
-        <v>5.194333080023682</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03640547372307879</v>
       </c>
       <c r="K3">
-        <v>0.408845053854364</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7034175101383013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.6577201555666647</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>8.080386509009656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.369638157324147</v>
+        <v>1.879156023635829</v>
       </c>
       <c r="C4">
-        <v>0.2896606517505944</v>
+        <v>0.4143934649008827</v>
       </c>
       <c r="D4">
-        <v>0.1574233839580188</v>
+        <v>0.3197152065604172</v>
       </c>
       <c r="E4">
-        <v>0.194190689177546</v>
+        <v>0.1007028274537518</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.29931300183668</v>
+        <v>0.0008430811162599928</v>
       </c>
       <c r="H4">
-        <v>4.747722873512117</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03526475826653552</v>
       </c>
       <c r="K4">
-        <v>0.3656072047399235</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6320184953179577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6034173171858299</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.451643974382137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.306328655878133</v>
+        <v>1.80243080667961</v>
       </c>
       <c r="C5">
-        <v>0.2755051784206302</v>
+        <v>0.3960203425322106</v>
       </c>
       <c r="D5">
-        <v>0.1504746809515467</v>
+        <v>0.3126043558952603</v>
       </c>
       <c r="E5">
-        <v>0.1859917813073437</v>
+        <v>0.09881922113316932</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.208510270906942</v>
+        <v>0.0008466015778516705</v>
       </c>
       <c r="H5">
-        <v>4.568176418220844</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03481057015292777</v>
       </c>
       <c r="K5">
-        <v>0.3483435995734894</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6034356778782524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5818426304237789</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.199238735945386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.295886229205905</v>
+        <v>1.789793771414566</v>
       </c>
       <c r="C6">
-        <v>0.2731724091413241</v>
+        <v>0.3929988074377775</v>
       </c>
       <c r="D6">
-        <v>0.1493265990560957</v>
+        <v>0.3114338506634908</v>
       </c>
       <c r="E6">
-        <v>0.1846370595620925</v>
+        <v>0.09850916436817414</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.193499785862883</v>
+        <v>0.0008471884880523195</v>
       </c>
       <c r="H6">
-        <v>4.538497533072615</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.03473575491308978</v>
       </c>
       <c r="K6">
-        <v>0.3454967256536534</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5987179546180172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5782914073166054</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.157537287922082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.368779515900997</v>
+        <v>1.878114200153902</v>
       </c>
       <c r="C7">
-        <v>0.2894685202687697</v>
+        <v>0.4141436639896483</v>
       </c>
       <c r="D7">
-        <v>0.1573292750327511</v>
+        <v>0.3196186064078717</v>
       </c>
       <c r="E7">
-        <v>0.194079653523282</v>
+        <v>0.1006772388665169</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.298083753596899</v>
+        <v>0.0008431284406603886</v>
       </c>
       <c r="H7">
-        <v>4.74529213545415</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03525859166066425</v>
       </c>
       <c r="K7">
-        <v>0.365373021035353</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6316310574059969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6031242119307763</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.44822542902466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.70212331000053</v>
+        <v>2.284763541328573</v>
       </c>
       <c r="C8">
-        <v>0.3643823654487051</v>
+        <v>0.51228614865758</v>
       </c>
       <c r="D8">
-        <v>0.1936064064434078</v>
+        <v>0.3573845110249465</v>
       </c>
       <c r="E8">
-        <v>0.2368721526250042</v>
+        <v>0.1106807174253284</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.771007111092558</v>
+        <v>0.0008255154887729588</v>
       </c>
       <c r="H8">
-        <v>5.680663692127524</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.03766347179513119</v>
       </c>
       <c r="K8">
-        <v>0.4563855108204038</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7816231448421362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.7177918918099451</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.766412360651486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.415109888502514</v>
+        <v>3.165246984611201</v>
       </c>
       <c r="C9">
-        <v>0.5270325293418523</v>
+        <v>0.7288355538555038</v>
       </c>
       <c r="D9">
-        <v>0.2696766354025897</v>
+        <v>0.439197357751965</v>
       </c>
       <c r="E9">
-        <v>0.3265535979972114</v>
+        <v>0.1323439796578789</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.758301199226594</v>
+        <v>0.0007916413291145808</v>
       </c>
       <c r="H9">
-        <v>7.634362147751688</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04284742781295847</v>
       </c>
       <c r="K9">
-        <v>0.6517651915843174</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.100012212982648</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.9672534177086192</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.53492626997632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.996151280443542</v>
+        <v>3.889952943709716</v>
       </c>
       <c r="C10">
-        <v>0.6622263507982495</v>
+        <v>0.9109113712294175</v>
       </c>
       <c r="D10">
-        <v>0.3303387074083162</v>
+        <v>0.5062404758096477</v>
       </c>
       <c r="E10">
-        <v>0.3980278216564415</v>
+        <v>0.1500841392762275</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.542850444087208</v>
+        <v>0.0007666471181073166</v>
       </c>
       <c r="H10">
-        <v>9.18748950892865</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.04708225502694319</v>
       </c>
       <c r="K10">
-        <v>0.811758866044471</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.357414599467177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.173234288634134</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.74866912953047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.279145079155001</v>
+        <v>4.244632870099963</v>
       </c>
       <c r="C11">
-        <v>0.7289687237734483</v>
+        <v>1.001230190350412</v>
       </c>
       <c r="D11">
-        <v>0.3594889273783508</v>
+        <v>0.538895000497206</v>
       </c>
       <c r="E11">
-        <v>0.4323610647179734</v>
+        <v>0.1587198316971765</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.919245971146552</v>
+        <v>0.000755102800433813</v>
       </c>
       <c r="H11">
-        <v>9.932758357627392</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.04914273446840411</v>
       </c>
       <c r="K11">
-        <v>0.8899428403055438</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.482181280857844</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.274160733607829</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.81473502212401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.389679989970773</v>
+        <v>4.383432537133444</v>
       </c>
       <c r="C12">
-        <v>0.7552000958054919</v>
+        <v>1.036788147432162</v>
       </c>
       <c r="D12">
-        <v>0.3708072090271912</v>
+        <v>0.5516414646027954</v>
       </c>
       <c r="E12">
-        <v>0.4456895928883</v>
+        <v>0.1620897464472009</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.065303441876097</v>
+        <v>0.0007506897043090732</v>
       </c>
       <c r="H12">
-        <v>10.22197462600963</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.04994678990403756</v>
       </c>
       <c r="K12">
-        <v>0.9205277055896772</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.530812635107011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.313670957642046</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.22909913665444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.365711531499812</v>
+        <v>4.353323051823224</v>
       </c>
       <c r="C13">
-        <v>0.7495042782615542</v>
+        <v>1.029064521754435</v>
       </c>
       <c r="D13">
-        <v>0.3683561275257716</v>
+        <v>0.5488780215634677</v>
       </c>
       <c r="E13">
-        <v>0.4428032772263037</v>
+        <v>0.1613591938923982</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.033677166464486</v>
+        <v>0.0007516422973638886</v>
       </c>
       <c r="H13">
-        <v>10.15934883576847</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.04977247930899509</v>
       </c>
       <c r="K13">
-        <v>0.9138934172351156</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.520272140241602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.305099537426017</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.13934317609505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.288166724425253</v>
+        <v>4.255956051458213</v>
       </c>
       <c r="C14">
-        <v>0.7311062429133131</v>
+        <v>1.004126515939646</v>
       </c>
       <c r="D14">
-        <v>0.3604141114365405</v>
+        <v>0.5399355559358696</v>
       </c>
       <c r="E14">
-        <v>0.4334506171839294</v>
+        <v>0.1589949549654754</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.931186798215208</v>
+        <v>0.0007547406733444876</v>
       </c>
       <c r="H14">
-        <v>9.956402629738648</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.04920837765853037</v>
       </c>
       <c r="K14">
-        <v>0.8924381268221069</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.486152584935283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.277383694369107</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.84859672358033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.241130685137023</v>
+        <v>4.196931204633415</v>
       </c>
       <c r="C15">
-        <v>0.7199685765694994</v>
+        <v>0.9890374419876196</v>
       </c>
       <c r="D15">
-        <v>0.355587728852683</v>
+        <v>0.5345100482460623</v>
       </c>
       <c r="E15">
-        <v>0.4277666884489406</v>
+        <v>0.1575604083548647</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.868891923874344</v>
+        <v>0.0007566325528019515</v>
       </c>
       <c r="H15">
-        <v>9.83305210522991</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.04886610177616646</v>
       </c>
       <c r="K15">
-        <v>0.879430413716463</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.465443305647725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.260583758877303</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.67196954309816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.978087563652423</v>
+        <v>3.867348340447677</v>
       </c>
       <c r="C16">
-        <v>0.6579862961771425</v>
+        <v>0.9051817801480126</v>
       </c>
       <c r="D16">
-        <v>0.3284694556746217</v>
+        <v>0.504155483245512</v>
       </c>
       <c r="E16">
-        <v>0.3958259324370985</v>
+        <v>0.1495326332039077</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.518702219290191</v>
+        <v>0.0007673967431855702</v>
       </c>
       <c r="H16">
-        <v>9.139678425531542</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.04695065677444532</v>
       </c>
       <c r="K16">
-        <v>0.8067741502784642</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.349437713904123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.166804058122125</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.68036132430592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.821939114306758</v>
+        <v>3.672133253478137</v>
       </c>
       <c r="C17">
-        <v>0.6214339662398629</v>
+        <v>0.8558344342285977</v>
       </c>
       <c r="D17">
-        <v>0.3122673940388268</v>
+        <v>0.4861314325941066</v>
       </c>
       <c r="E17">
-        <v>0.3767392745673845</v>
+        <v>0.1447644913173605</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.309327407262657</v>
+        <v>0.0007739450909863664</v>
       </c>
       <c r="H17">
-        <v>8.725152355830858</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.04581280914378993</v>
       </c>
       <c r="K17">
-        <v>0.7637136581993786</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.28041677945258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.111284360570281</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.08855021636802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.733834902240403</v>
+        <v>3.562139784727037</v>
       </c>
       <c r="C18">
-        <v>0.6008886392164356</v>
+        <v>0.8281359944887186</v>
       </c>
       <c r="D18">
-        <v>0.3030907011963535</v>
+        <v>0.4759623329895533</v>
       </c>
       <c r="E18">
-        <v>0.3659276544805365</v>
+        <v>0.1420738932722081</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.190684219379619</v>
+        <v>0.0007776963050503127</v>
       </c>
       <c r="H18">
-        <v>8.490272034672444</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.04517063954358846</v>
       </c>
       <c r="K18">
-        <v>0.7394402895475167</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.241419671560351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.08001263771915</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.75355450366652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.704279492583964</v>
+        <v>3.525267334552041</v>
       </c>
       <c r="C19">
-        <v>0.5940091602789153</v>
+        <v>0.8188680428735893</v>
       </c>
       <c r="D19">
-        <v>0.3000065712347038</v>
+        <v>0.4725513446667833</v>
       </c>
       <c r="E19">
-        <v>0.3622938708780694</v>
+        <v>0.1411713270991477</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.150800772095749</v>
+        <v>0.0007789642249389022</v>
       </c>
       <c r="H19">
-        <v>8.411316153032828</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.04495520230673833</v>
       </c>
       <c r="K19">
-        <v>0.7313012220401163</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.228328982013458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.069531520505301</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.64099980790661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.838380153801836</v>
+        <v>3.692671555351183</v>
       </c>
       <c r="C20">
-        <v>0.6252741796915586</v>
+        <v>0.8610148728412526</v>
       </c>
       <c r="D20">
-        <v>0.313977038681827</v>
+        <v>0.4880291871712075</v>
       </c>
       <c r="E20">
-        <v>0.3787534213025907</v>
+        <v>0.1452665760870389</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.331426434310742</v>
+        <v>0.0007732496904524488</v>
       </c>
       <c r="H20">
-        <v>8.768903294467037</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.04593263368301237</v>
       </c>
       <c r="K20">
-        <v>0.7682451050715216</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.287689709585663</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.117124409370724</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.15097668999238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.310845667856654</v>
+        <v>4.284424941099815</v>
       </c>
       <c r="C21">
-        <v>0.7364823100947149</v>
+        <v>1.011412005034941</v>
       </c>
       <c r="D21">
-        <v>0.3627387651297767</v>
+        <v>0.5425511831657843</v>
       </c>
       <c r="E21">
-        <v>0.4361882332882843</v>
+        <v>0.1596865115698165</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.961188407417694</v>
+        <v>0.0007538318842164066</v>
       </c>
       <c r="H21">
-        <v>10.01580974142979</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.04937338037973404</v>
       </c>
       <c r="K21">
-        <v>0.8987116468980645</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.496134135257918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.285487112479714</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.93368632373125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.63973866199882</v>
+        <v>4.697943665955449</v>
       </c>
       <c r="C22">
-        <v>0.8148821923914511</v>
+        <v>1.117799991108285</v>
       </c>
       <c r="D22">
-        <v>0.3962749597329775</v>
+        <v>0.5804517752908112</v>
       </c>
       <c r="E22">
-        <v>0.4756762066958586</v>
+        <v>0.1697045216624353</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.393795271571548</v>
+        <v>0.0007408882678477204</v>
       </c>
       <c r="H22">
-        <v>10.87247590845982</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.05176382296268756</v>
       </c>
       <c r="K22">
-        <v>0.989816598677379</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.640624904194397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.403220034812747</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>16.16242525083641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.46208611530443</v>
+        <v>4.474429867539186</v>
       </c>
       <c r="C23">
-        <v>0.7724328179166093</v>
+        <v>1.060164623669266</v>
       </c>
       <c r="D23">
-        <v>0.3782010213940055</v>
+        <v>0.5599876357279925</v>
       </c>
       <c r="E23">
-        <v>0.4543959634045223</v>
+        <v>0.1642960047430009</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.160693219196617</v>
+        <v>0.0007478262789257895</v>
       </c>
       <c r="H23">
-        <v>10.41086668564003</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.05047321623982981</v>
       </c>
       <c r="K23">
-        <v>0.9405767493166977</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.562638451937559</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.339577359241716</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.49992562598328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.830942014910875</v>
+        <v>3.683379281511179</v>
       </c>
       <c r="C24">
-        <v>0.6235365726757323</v>
+        <v>0.8586707233800723</v>
       </c>
       <c r="D24">
-        <v>0.3132036822705544</v>
+        <v>0.4871706157512108</v>
       </c>
       <c r="E24">
-        <v>0.3778423270906188</v>
+        <v>0.1450394270631143</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.32143013007402</v>
+        <v>0.000773564121888435</v>
       </c>
       <c r="H24">
-        <v>8.749112894849105</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.04587842397529229</v>
       </c>
       <c r="K24">
-        <v>0.7661949489695417</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.284399507779725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.1144821252892</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.12273750307543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.213956338395803</v>
+        <v>2.915683944970112</v>
       </c>
       <c r="C25">
-        <v>0.4807922627977916</v>
+        <v>0.6669222524965051</v>
       </c>
       <c r="D25">
-        <v>0.2484074515170249</v>
+        <v>0.4160322844913509</v>
       </c>
       <c r="E25">
-        <v>0.3014849152874461</v>
+        <v>0.1262115106280106</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.482717987937946</v>
+        <v>0.0008007809693040926</v>
       </c>
       <c r="H25">
-        <v>7.088921869743018</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.04138201474863834</v>
       </c>
       <c r="K25">
-        <v>0.5965399635392359</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.010487663787465</v>
+        <v>0.8964311662179938</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.76010519539076</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.399734666787253</v>
+        <v>0.7064231694992031</v>
       </c>
       <c r="C2">
-        <v>0.5402571036436541</v>
+        <v>0.4628792711192773</v>
       </c>
       <c r="D2">
-        <v>0.3680738919979092</v>
+        <v>0.1872066849230407</v>
       </c>
       <c r="E2">
-        <v>0.1135118653390066</v>
+        <v>0.02545138994506413</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008208040386831219</v>
+        <v>0.0009216973609093179</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>10.64722333031639</v>
       </c>
       <c r="J2">
-        <v>0.03834240379608644</v>
+        <v>0.02038269872385712</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.162007830305129</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4008332986148986</v>
       </c>
       <c r="M2">
-        <v>0.7502901687415218</v>
+        <v>0.2577104055500214</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.133908343039195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.071944434851616</v>
+        <v>0.6556399860398585</v>
       </c>
       <c r="C3">
-        <v>0.460766217697909</v>
+        <v>0.4098734807176641</v>
       </c>
       <c r="D3">
-        <v>0.3376075784020856</v>
+        <v>0.1776838326162533</v>
       </c>
       <c r="E3">
-        <v>0.1054423143603387</v>
+        <v>0.02567683857771819</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008345310323755542</v>
+        <v>0.0009323382422695923</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>9.622072786200249</v>
       </c>
       <c r="J3">
-        <v>0.03640547372307879</v>
+        <v>0.01801612507176387</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.058091091341367</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3760100604610699</v>
       </c>
       <c r="M3">
-        <v>0.6577201555666647</v>
+        <v>0.2412951428691521</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.080386509009656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.879156023635829</v>
+        <v>0.6274549219221797</v>
       </c>
       <c r="C4">
-        <v>0.4143934649008827</v>
+        <v>0.3779504942124845</v>
       </c>
       <c r="D4">
-        <v>0.3197152065604172</v>
+        <v>0.1721298622815226</v>
       </c>
       <c r="E4">
-        <v>0.1007028274537518</v>
+        <v>0.02583782430080461</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008430811162599928</v>
+        <v>0.0009390184583331913</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>9.001420143481482</v>
       </c>
       <c r="J4">
-        <v>0.03526475826653552</v>
+        <v>0.01658083564488066</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.99758289099546</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3612784320073672</v>
       </c>
       <c r="M4">
-        <v>0.6034173171858299</v>
+        <v>0.2318805897942369</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.451643974382137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.80243080667961</v>
+        <v>0.6166605866134205</v>
       </c>
       <c r="C5">
-        <v>0.3960203425322106</v>
+        <v>0.3650776486950633</v>
       </c>
       <c r="D5">
-        <v>0.3126043558952603</v>
+        <v>0.1699350112253626</v>
       </c>
       <c r="E5">
-        <v>0.09881922113316932</v>
+        <v>0.02590900789063966</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008466015778516705</v>
+        <v>0.0009417801741067217</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>8.750316764328943</v>
       </c>
       <c r="J5">
-        <v>0.03481057015292777</v>
+        <v>0.01599946651822393</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9736790432047258</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3553923348423353</v>
       </c>
       <c r="M5">
-        <v>0.5818426304237789</v>
+        <v>0.2281981595384366</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.199238735945386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.789793771414566</v>
+        <v>0.6149082496418146</v>
       </c>
       <c r="C6">
-        <v>0.3929988074377775</v>
+        <v>0.3629477725386607</v>
       </c>
       <c r="D6">
-        <v>0.3114338506634908</v>
+        <v>0.1695745465821972</v>
       </c>
       <c r="E6">
-        <v>0.09850916436817414</v>
+        <v>0.02592116241227771</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008471884880523195</v>
+        <v>0.000942241210174566</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>8.708720186824195</v>
       </c>
       <c r="J6">
-        <v>0.03473575491308978</v>
+        <v>0.01590311724525506</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9697532858986904</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3544217247653876</v>
       </c>
       <c r="M6">
-        <v>0.5782914073166054</v>
+        <v>0.2275956438445199</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.157537287922082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.878114200153902</v>
+        <v>0.6273066242396794</v>
       </c>
       <c r="C7">
-        <v>0.4141436639896483</v>
+        <v>0.3777763615551919</v>
       </c>
       <c r="D7">
-        <v>0.3196186064078717</v>
+        <v>0.1720999912578804</v>
       </c>
       <c r="E7">
-        <v>0.1006772388665169</v>
+        <v>0.02583876182669531</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008431284406603886</v>
+        <v>0.0009390555408084433</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8.998026810359676</v>
       </c>
       <c r="J7">
-        <v>0.03525859166066425</v>
+        <v>0.01657298202675506</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9972575577840246</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3611985895504972</v>
       </c>
       <c r="M7">
-        <v>0.6031242119307763</v>
+        <v>0.2318303196887186</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.44822542902466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.284763541328573</v>
+        <v>0.6882519343555487</v>
       </c>
       <c r="C8">
-        <v>0.51228614865758</v>
+        <v>0.4444606068957455</v>
       </c>
       <c r="D8">
-        <v>0.3573845110249465</v>
+        <v>0.1838590419402806</v>
       </c>
       <c r="E8">
-        <v>0.1106807174253284</v>
+        <v>0.0255243838725967</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008255154887729588</v>
+        <v>0.0009253375304305797</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10.29167736224463</v>
       </c>
       <c r="J8">
-        <v>0.03766347179513119</v>
+        <v>0.01956240784428687</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.125445270702158</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3921614091104146</v>
       </c>
       <c r="M8">
-        <v>0.7177918918099451</v>
+        <v>0.2519042628501715</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.766412360651486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.165246984611201</v>
+        <v>0.8347094601384413</v>
       </c>
       <c r="C9">
-        <v>0.7288355538555038</v>
+        <v>0.581214247234044</v>
       </c>
       <c r="D9">
-        <v>0.439197357751965</v>
+        <v>0.2095116110754844</v>
       </c>
       <c r="E9">
-        <v>0.1323439796578789</v>
+        <v>0.02509162167669121</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007916413291145808</v>
+        <v>0.000899469457363633</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.91826946563339</v>
       </c>
       <c r="J9">
-        <v>0.04284742781295847</v>
+        <v>0.02561432194747937</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.406826393024147</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4574875288268032</v>
       </c>
       <c r="M9">
-        <v>0.9672534177086192</v>
+        <v>0.2972052323583085</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.53492626997632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.889952943709716</v>
+        <v>0.9638377935114022</v>
       </c>
       <c r="C10">
-        <v>0.9109113712294175</v>
+        <v>0.6870000891915709</v>
       </c>
       <c r="D10">
-        <v>0.5062404758096477</v>
+        <v>0.230365722326539</v>
       </c>
       <c r="E10">
-        <v>0.1500841392762275</v>
+        <v>0.02489330608729112</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007666471181073166</v>
+        <v>0.0008808864306183487</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.93452049576413</v>
       </c>
       <c r="J10">
-        <v>0.04708225502694319</v>
+        <v>0.03025373042393298</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.638015215577894</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5091868287906465</v>
       </c>
       <c r="M10">
-        <v>1.173234288634134</v>
+        <v>0.3351702068092806</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.74866912953047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.244632870099963</v>
+        <v>1.028628038277787</v>
       </c>
       <c r="C11">
-        <v>1.001230190350412</v>
+        <v>0.7367186128045375</v>
       </c>
       <c r="D11">
-        <v>0.538895000497206</v>
+        <v>0.2404015768075283</v>
       </c>
       <c r="E11">
-        <v>0.1587198316971765</v>
+        <v>0.0248311114877291</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000755102800433813</v>
+        <v>0.000872469581760793</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.87894749853643</v>
       </c>
       <c r="J11">
-        <v>0.04914273446840411</v>
+        <v>0.03242685334075546</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.750150996669447</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5337471750519143</v>
       </c>
       <c r="M11">
-        <v>1.274160733607829</v>
+        <v>0.3537426487643529</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.81473502212401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.383432537133444</v>
+        <v>1.054169949100242</v>
       </c>
       <c r="C12">
-        <v>1.036788147432162</v>
+        <v>0.7558186094271946</v>
       </c>
       <c r="D12">
-        <v>0.5516414646027954</v>
+        <v>0.2442920188268971</v>
       </c>
       <c r="E12">
-        <v>0.1620897464472009</v>
+        <v>0.02481179348426288</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007506897043090732</v>
+        <v>0.0008692822414357814</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.2413197792136</v>
       </c>
       <c r="J12">
-        <v>0.04994678990403756</v>
+        <v>0.03326080922915864</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.793780527968067</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5432207007693393</v>
       </c>
       <c r="M12">
-        <v>1.313670957642046</v>
+        <v>0.3609911332282749</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.22909913665444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.353323051823224</v>
+        <v>1.048621807555577</v>
       </c>
       <c r="C13">
-        <v>1.029064521754435</v>
+        <v>0.7516921963049015</v>
       </c>
       <c r="D13">
-        <v>0.5488780215634677</v>
+        <v>0.243449940579751</v>
       </c>
       <c r="E13">
-        <v>0.1613591938923982</v>
+        <v>0.02481576205612246</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007516422973638886</v>
+        <v>0.0008699687888459881</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.16305119749978</v>
       </c>
       <c r="J13">
-        <v>0.04977247930899509</v>
+        <v>0.03308067490303657</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.784329355115773</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5411723024532193</v>
       </c>
       <c r="M13">
-        <v>1.305099537426017</v>
+        <v>0.3594199576816095</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.13934317609505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.255956051458213</v>
+        <v>1.030708330670791</v>
       </c>
       <c r="C14">
-        <v>1.004126515939646</v>
+        <v>0.7382842450092539</v>
       </c>
       <c r="D14">
-        <v>0.5399355559358696</v>
+        <v>0.2407197706426416</v>
       </c>
       <c r="E14">
-        <v>0.1589949549654754</v>
+        <v>0.02482943604527055</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007547406733444876</v>
+        <v>0.0008722073923852246</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>15.90865994913509</v>
       </c>
       <c r="J14">
-        <v>0.04920837765853037</v>
+        <v>0.03249522928351922</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.753716015555796</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5345229536509066</v>
       </c>
       <c r="M14">
-        <v>1.277383694369107</v>
+        <v>0.3543344884612338</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.84859672358033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.196931204633415</v>
+        <v>1.019871450844363</v>
       </c>
       <c r="C15">
-        <v>0.9890374419876196</v>
+        <v>0.7301083928179537</v>
       </c>
       <c r="D15">
-        <v>0.5345100482460623</v>
+        <v>0.2390595530316517</v>
       </c>
       <c r="E15">
-        <v>0.1575604083548647</v>
+        <v>0.02483836974117715</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007566325528019515</v>
+        <v>0.0008735784207468119</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.75348163497262</v>
       </c>
       <c r="J15">
-        <v>0.04886610177616646</v>
+        <v>0.03213813079807082</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.735121662577512</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5304733222630773</v>
       </c>
       <c r="M15">
-        <v>1.260583758877303</v>
+        <v>0.3512484743025936</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.67196954309816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.867348340447677</v>
+        <v>0.9597365612478654</v>
       </c>
       <c r="C16">
-        <v>0.9051817801480126</v>
+        <v>0.6837865243396948</v>
       </c>
       <c r="D16">
-        <v>0.504155483245512</v>
+        <v>0.2297218183777403</v>
       </c>
       <c r="E16">
-        <v>0.1495326332039077</v>
+        <v>0.02489795124560246</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007673967431855702</v>
+        <v>0.0008814367916119425</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.87341536839415</v>
       </c>
       <c r="J16">
-        <v>0.04695065677444532</v>
+        <v>0.0301131388105631</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.630840521850899</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5076046261228555</v>
       </c>
       <c r="M16">
-        <v>1.166804058122125</v>
+        <v>0.3339849692081103</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.68036132430592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.672133253478137</v>
+        <v>0.9244859865520993</v>
       </c>
       <c r="C17">
-        <v>0.8558344342285977</v>
+        <v>0.6558070404193472</v>
       </c>
       <c r="D17">
-        <v>0.4861314325941066</v>
+        <v>0.2241414719230335</v>
       </c>
       <c r="E17">
-        <v>0.1447644913173605</v>
+        <v>0.02494181490524294</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007739450909863664</v>
+        <v>0.0008862634888360299</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.34104376407922</v>
       </c>
       <c r="J17">
-        <v>0.04581280914378993</v>
+        <v>0.02888826391637167</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.568760667585735</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4938577598868079</v>
       </c>
       <c r="M17">
-        <v>1.111284360570281</v>
+        <v>0.3237465838285019</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.08855021636802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.562139784727037</v>
+        <v>0.9047707313085027</v>
       </c>
       <c r="C18">
-        <v>0.8281359944887186</v>
+        <v>0.6398612672837487</v>
       </c>
       <c r="D18">
-        <v>0.4759623329895533</v>
+        <v>0.2209827428003592</v>
       </c>
       <c r="E18">
-        <v>0.1420738932722081</v>
+        <v>0.02496966753948726</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007776963050503127</v>
+        <v>0.0008890434910808223</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.03734415050172</v>
       </c>
       <c r="J18">
-        <v>0.04517063954358846</v>
+        <v>0.02818950458821945</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.53369847656117</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4860474322403832</v>
       </c>
       <c r="M18">
-        <v>1.08001263771915</v>
+        <v>0.3179783493441377</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.75355450366652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.525267334552041</v>
+        <v>0.8981878254367359</v>
       </c>
       <c r="C19">
-        <v>0.8188680428735893</v>
+        <v>0.6344863882018785</v>
       </c>
       <c r="D19">
-        <v>0.4725513446667833</v>
+        <v>0.219921688671846</v>
       </c>
       <c r="E19">
-        <v>0.1411713270991477</v>
+        <v>0.02497954281575954</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007789642249389022</v>
+        <v>0.0008899855568962393</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.93492405913895</v>
       </c>
       <c r="J19">
-        <v>0.04495520230673833</v>
+        <v>0.02795384840722548</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.521933125983452</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4834189133022022</v>
       </c>
       <c r="M19">
-        <v>1.069531520505301</v>
+        <v>0.3160452496933672</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.64099980790661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.692671555351183</v>
+        <v>0.9281795940372035</v>
       </c>
       <c r="C20">
-        <v>0.8610148728412526</v>
+        <v>0.6587699687778752</v>
       </c>
       <c r="D20">
-        <v>0.4880291871712075</v>
+        <v>0.2247301622816593</v>
       </c>
       <c r="E20">
-        <v>0.1452665760870389</v>
+        <v>0.02493687264992506</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007732496904524488</v>
+        <v>0.0008857493201784866</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.39745065109548</v>
       </c>
       <c r="J20">
-        <v>0.04593263368301237</v>
+        <v>0.02901804445111367</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.57530136367032</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4953109922317793</v>
       </c>
       <c r="M20">
-        <v>1.117124409370724</v>
+        <v>0.3248238037066074</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.15097668999238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.284424941099815</v>
+        <v>1.035941406974928</v>
       </c>
       <c r="C21">
-        <v>1.011412005034941</v>
+        <v>0.7422147075833436</v>
       </c>
       <c r="D21">
-        <v>0.5425511831657843</v>
+        <v>0.2415191458068051</v>
       </c>
       <c r="E21">
-        <v>0.1596865115698165</v>
+        <v>0.02482530296800967</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007538318842164066</v>
+        <v>0.0008715499087833687</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15.98324503107239</v>
       </c>
       <c r="J21">
-        <v>0.04937338037973404</v>
+        <v>0.03266687134631496</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.762674802612025</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5364711290380768</v>
       </c>
       <c r="M21">
-        <v>1.285487112479714</v>
+        <v>0.3558221169738189</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.93368632373125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.697943665955449</v>
+        <v>1.112322343031053</v>
       </c>
       <c r="C22">
-        <v>1.117799991108285</v>
+        <v>0.7983651593642378</v>
       </c>
       <c r="D22">
-        <v>0.5804517752908112</v>
+        <v>0.2530232551513194</v>
       </c>
       <c r="E22">
-        <v>0.1697045216624353</v>
+        <v>0.02477718299643517</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007408882678477204</v>
+        <v>0.0008622663017568425</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>17.04775102452129</v>
       </c>
       <c r="J22">
-        <v>0.05176382296268756</v>
+        <v>0.03511714224064733</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.892028214931145</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5643938658073751</v>
       </c>
       <c r="M22">
-        <v>1.403220034812747</v>
+        <v>0.37735407124012</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.16242525083641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.474429867539186</v>
+        <v>1.070960101559734</v>
       </c>
       <c r="C23">
-        <v>1.060164623669266</v>
+        <v>0.7682327901976294</v>
       </c>
       <c r="D23">
-        <v>0.5599876357279925</v>
+        <v>0.24683051990786</v>
       </c>
       <c r="E23">
-        <v>0.1642960047430009</v>
+        <v>0.02480052013773726</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007478262789257895</v>
+        <v>0.0008672234422561435</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.47672642754566</v>
       </c>
       <c r="J23">
-        <v>0.05047321623982981</v>
+        <v>0.0338026272921681</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.82229742469525</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5493887993438165</v>
       </c>
       <c r="M23">
-        <v>1.339577359241716</v>
+        <v>0.3657350054113095</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.49992562598328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.683379281511179</v>
+        <v>0.9265080086467492</v>
       </c>
       <c r="C24">
-        <v>0.8586707233800723</v>
+        <v>0.6574299959529526</v>
       </c>
       <c r="D24">
-        <v>0.4871706157512108</v>
+        <v>0.2244638620474149</v>
       </c>
       <c r="E24">
-        <v>0.1450394270631143</v>
+        <v>0.02493909885164758</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000773564121888435</v>
+        <v>0.0008859817596406238</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.37194178247259</v>
       </c>
       <c r="J24">
-        <v>0.04587842397529229</v>
+        <v>0.02895935388396254</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.5723423698754</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4946536981404108</v>
       </c>
       <c r="M24">
-        <v>1.1144821252892</v>
+        <v>0.324336427288543</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.12273750307543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.915683944970112</v>
+        <v>0.7917208605202006</v>
       </c>
       <c r="C25">
-        <v>0.6669222524965051</v>
+        <v>0.5434191037816731</v>
       </c>
       <c r="D25">
-        <v>0.4160322844913509</v>
+        <v>0.2022536306960063</v>
       </c>
       <c r="E25">
-        <v>0.1262115106280106</v>
+        <v>0.02518830229996816</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008007809693040926</v>
+        <v>0.0009063767195693843</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.19506392100101</v>
       </c>
       <c r="J25">
-        <v>0.04138201474863834</v>
+        <v>0.02394943943933114</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.326907432961633</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4392363097288268</v>
       </c>
       <c r="M25">
-        <v>0.8964311662179938</v>
+        <v>0.2842135633773744</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.76010519539076</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7064231694992031</v>
+        <v>1.876574238873843</v>
       </c>
       <c r="C2">
-        <v>0.4628792711192773</v>
+        <v>0.3280797911055231</v>
       </c>
       <c r="D2">
-        <v>0.1872066849230407</v>
+        <v>0.3963092732523847</v>
       </c>
       <c r="E2">
-        <v>0.02545138994506413</v>
+        <v>0.08203988591942935</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0009216973609093179</v>
+        <v>0.002805036148611686</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.64722333031639</v>
+        <v>7.90635596266435</v>
       </c>
       <c r="J2">
-        <v>0.02038269872385712</v>
+        <v>0.01464460683253677</v>
       </c>
       <c r="K2">
-        <v>1.162007830305129</v>
+        <v>2.045061748202556</v>
       </c>
       <c r="L2">
-        <v>0.4008332986148986</v>
+        <v>0.694616801155945</v>
       </c>
       <c r="M2">
-        <v>0.2577104055500214</v>
+        <v>0.5766854997099458</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6556399860398585</v>
+        <v>1.894530729083613</v>
       </c>
       <c r="C3">
-        <v>0.4098734807176641</v>
+        <v>0.3135922243317282</v>
       </c>
       <c r="D3">
-        <v>0.1776838326162533</v>
+        <v>0.3962176827289454</v>
       </c>
       <c r="E3">
-        <v>0.02567683857771819</v>
+        <v>0.08245112671865673</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0009323382422695923</v>
+        <v>0.002811001998680823</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.622072786200249</v>
+        <v>7.582193094253796</v>
       </c>
       <c r="J3">
-        <v>0.01801612507176387</v>
+        <v>0.01385338549802739</v>
       </c>
       <c r="K3">
-        <v>1.058091091341367</v>
+        <v>2.04375332438272</v>
       </c>
       <c r="L3">
-        <v>0.3760100604610699</v>
+        <v>0.6907322584186488</v>
       </c>
       <c r="M3">
-        <v>0.2412951428691521</v>
+        <v>0.5785158769421272</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6274549219221797</v>
+        <v>1.907165124553046</v>
       </c>
       <c r="C4">
-        <v>0.3779504942124845</v>
+        <v>0.3047988964764556</v>
       </c>
       <c r="D4">
-        <v>0.1721298622815226</v>
+        <v>0.3963213170383142</v>
       </c>
       <c r="E4">
-        <v>0.02583782430080461</v>
+        <v>0.0827234049123442</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009390184583331913</v>
+        <v>0.002814851446213313</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.001420143481482</v>
+        <v>7.382211151095277</v>
       </c>
       <c r="J4">
-        <v>0.01658083564488066</v>
+        <v>0.01336206671574303</v>
       </c>
       <c r="K4">
-        <v>0.99758289099546</v>
+        <v>2.044471758697341</v>
       </c>
       <c r="L4">
-        <v>0.3612784320073672</v>
+        <v>0.6885697899885628</v>
       </c>
       <c r="M4">
-        <v>0.2318805897942369</v>
+        <v>0.5799961747480111</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6166605866134205</v>
+        <v>1.912717883418111</v>
       </c>
       <c r="C5">
-        <v>0.3650776486950633</v>
+        <v>0.3012409828577916</v>
       </c>
       <c r="D5">
-        <v>0.1699350112253626</v>
+        <v>0.3964037725330058</v>
       </c>
       <c r="E5">
-        <v>0.02590900789063966</v>
+        <v>0.08283934552504579</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009417801741067217</v>
+        <v>0.00281646717169081</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.750316764328943</v>
+        <v>7.300471390676165</v>
       </c>
       <c r="J5">
-        <v>0.01599946651822393</v>
+        <v>0.01316044630803503</v>
       </c>
       <c r="K5">
-        <v>0.9736790432047258</v>
+        <v>2.045146649716912</v>
       </c>
       <c r="L5">
-        <v>0.3553923348423353</v>
+        <v>0.6877445451456623</v>
       </c>
       <c r="M5">
-        <v>0.2281981595384366</v>
+        <v>0.5806890090205528</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6149082496418146</v>
+        <v>1.913664310653985</v>
       </c>
       <c r="C6">
-        <v>0.3629477725386607</v>
+        <v>0.3006517237260198</v>
       </c>
       <c r="D6">
-        <v>0.1695745465821972</v>
+        <v>0.3964198943274937</v>
       </c>
       <c r="E6">
-        <v>0.02592116241227771</v>
+        <v>0.08285889882914788</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000942241210174566</v>
+        <v>0.002816738308189657</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.708720186824195</v>
+        <v>7.286883507603648</v>
       </c>
       <c r="J6">
-        <v>0.01590311724525506</v>
+        <v>0.0131268820256274</v>
       </c>
       <c r="K6">
-        <v>0.9697532858986904</v>
+        <v>2.045281778590862</v>
       </c>
       <c r="L6">
-        <v>0.3544217247653876</v>
+        <v>0.6876108946265873</v>
       </c>
       <c r="M6">
-        <v>0.2275956438445199</v>
+        <v>0.5808094645580972</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6273066242396794</v>
+        <v>1.907238375286028</v>
       </c>
       <c r="C7">
-        <v>0.3777763615551919</v>
+        <v>0.3047508105098018</v>
       </c>
       <c r="D7">
-        <v>0.1720999912578804</v>
+        <v>0.3963222661650718</v>
       </c>
       <c r="E7">
-        <v>0.02583876182669531</v>
+        <v>0.08272494832707267</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0009390555408084433</v>
+        <v>0.002814873045780243</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.998026810359676</v>
+        <v>7.381109784586641</v>
       </c>
       <c r="J7">
-        <v>0.01657298202675506</v>
+        <v>0.01335935330297744</v>
       </c>
       <c r="K7">
-        <v>0.9972575577840246</v>
+        <v>2.044479314042945</v>
       </c>
       <c r="L7">
-        <v>0.3611985895504972</v>
+        <v>0.6885584338015747</v>
       </c>
       <c r="M7">
-        <v>0.2318303196887186</v>
+        <v>0.580005155802251</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6882519343555487</v>
+        <v>1.88243139162347</v>
       </c>
       <c r="C8">
-        <v>0.4444606068957455</v>
+        <v>0.3230631408600857</v>
       </c>
       <c r="D8">
-        <v>0.1838590419402806</v>
+        <v>0.3962445237216343</v>
       </c>
       <c r="E8">
-        <v>0.0255243838725967</v>
+        <v>0.08217758501594741</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0009253375304305797</v>
+        <v>0.002807054593731703</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.29167736224463</v>
+        <v>7.794775762709577</v>
       </c>
       <c r="J8">
-        <v>0.01956240784428687</v>
+        <v>0.01437292441426052</v>
       </c>
       <c r="K8">
-        <v>1.125445270702158</v>
+        <v>2.044294406250941</v>
       </c>
       <c r="L8">
-        <v>0.3921614091104146</v>
+        <v>0.6932311888442371</v>
       </c>
       <c r="M8">
-        <v>0.2519042628501715</v>
+        <v>0.577242615002902</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8347094601384413</v>
+        <v>1.846575571143177</v>
       </c>
       <c r="C9">
-        <v>0.581214247234044</v>
+        <v>0.359796389948599</v>
       </c>
       <c r="D9">
-        <v>0.2095116110754844</v>
+        <v>0.3973600875428502</v>
       </c>
       <c r="E9">
-        <v>0.02509162167669121</v>
+        <v>0.08126055915141617</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000899469457363633</v>
+        <v>0.002793193562724695</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.91826946563339</v>
+        <v>8.598874969698073</v>
       </c>
       <c r="J9">
-        <v>0.02561432194747937</v>
+        <v>0.01631781170488367</v>
       </c>
       <c r="K9">
-        <v>1.406826393024147</v>
+        <v>2.056036328694233</v>
       </c>
       <c r="L9">
-        <v>0.4574875288268032</v>
+        <v>0.7041628225763645</v>
       </c>
       <c r="M9">
-        <v>0.2972052323583085</v>
+        <v>0.5746556432634478</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9638377935114022</v>
+        <v>1.828066321159554</v>
       </c>
       <c r="C10">
-        <v>0.6870000891915709</v>
+        <v>0.3873066931409426</v>
       </c>
       <c r="D10">
-        <v>0.230365722326539</v>
+        <v>0.3989528110503926</v>
       </c>
       <c r="E10">
-        <v>0.02489330608729112</v>
+        <v>0.08068139446813483</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008808864306183487</v>
+        <v>0.002783895335344273</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.93452049576413</v>
+        <v>9.185922867908459</v>
       </c>
       <c r="J10">
-        <v>0.03025373042393298</v>
+        <v>0.01772212364421222</v>
       </c>
       <c r="K10">
-        <v>1.638015215577894</v>
+        <v>2.072090511703465</v>
       </c>
       <c r="L10">
-        <v>0.5091868287906465</v>
+        <v>0.7132764854152072</v>
       </c>
       <c r="M10">
-        <v>0.3351702068092806</v>
+        <v>0.574484786149938</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.028628038277787</v>
+        <v>1.821355650162474</v>
       </c>
       <c r="C11">
-        <v>0.7367186128045375</v>
+        <v>0.39994002638295</v>
       </c>
       <c r="D11">
-        <v>0.2404015768075283</v>
+        <v>0.399845370379893</v>
       </c>
       <c r="E11">
-        <v>0.0248311114877291</v>
+        <v>0.08043829822409698</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000872469581760793</v>
+        <v>0.002779855192009762</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.87894749853643</v>
+        <v>9.452312473686163</v>
       </c>
       <c r="J11">
-        <v>0.03242685334075546</v>
+        <v>0.01835596187957123</v>
       </c>
       <c r="K11">
-        <v>1.750150996669447</v>
+        <v>2.081018079423615</v>
       </c>
       <c r="L11">
-        <v>0.5337471750519143</v>
+        <v>0.7176585908524942</v>
       </c>
       <c r="M11">
-        <v>0.3537426487643529</v>
+        <v>0.5747837801506535</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.054169949100242</v>
+        <v>1.81906100170545</v>
       </c>
       <c r="C12">
-        <v>0.7558186094271946</v>
+        <v>0.4047413501402843</v>
       </c>
       <c r="D12">
-        <v>0.2442920188268971</v>
+        <v>0.4002075221288095</v>
       </c>
       <c r="E12">
-        <v>0.02481179348426288</v>
+        <v>0.08034916082413979</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008692822414357814</v>
+        <v>0.002778352383521125</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.2413197792136</v>
+        <v>9.553102152071062</v>
       </c>
       <c r="J12">
-        <v>0.03326080922915864</v>
+        <v>0.01859528612650863</v>
       </c>
       <c r="K12">
-        <v>1.793780527968067</v>
+        <v>2.084633177825481</v>
       </c>
       <c r="L12">
-        <v>0.5432207007693393</v>
+        <v>0.7193520166387799</v>
       </c>
       <c r="M12">
-        <v>0.3609911332282749</v>
+        <v>0.5749512567824766</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.048621807555577</v>
+        <v>1.819544218326371</v>
       </c>
       <c r="C13">
-        <v>0.7516921963049015</v>
+        <v>0.4037065228227448</v>
       </c>
       <c r="D13">
-        <v>0.243449940579751</v>
+        <v>0.4001284518079586</v>
       </c>
       <c r="E13">
-        <v>0.02481576205612246</v>
+        <v>0.08036822856068859</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008699687888459881</v>
+        <v>0.002778674837474917</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.16305119749978</v>
+        <v>9.531398986887439</v>
       </c>
       <c r="J13">
-        <v>0.03308067490303657</v>
+        <v>0.01854377400910678</v>
       </c>
       <c r="K13">
-        <v>1.784329355115773</v>
+        <v>2.083844162141759</v>
       </c>
       <c r="L13">
-        <v>0.5411723024532193</v>
+        <v>0.7189857933994119</v>
       </c>
       <c r="M13">
-        <v>0.3594199576816095</v>
+        <v>0.5749127733475206</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.030708330670791</v>
+        <v>1.821161922715362</v>
       </c>
       <c r="C14">
-        <v>0.7382842450092539</v>
+        <v>0.4003346847513285</v>
       </c>
       <c r="D14">
-        <v>0.2407197706426416</v>
+        <v>0.3998746806479545</v>
       </c>
       <c r="E14">
-        <v>0.02482943604527055</v>
+        <v>0.08043090642135908</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008722073923852246</v>
+        <v>0.002779731012694372</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.90865994913509</v>
+        <v>9.460606179374565</v>
       </c>
       <c r="J14">
-        <v>0.03249522928351922</v>
+        <v>0.01837566506694444</v>
       </c>
       <c r="K14">
-        <v>1.753716015555796</v>
+        <v>2.081310792704841</v>
       </c>
       <c r="L14">
-        <v>0.5345229536509066</v>
+        <v>0.7177972279774423</v>
       </c>
       <c r="M14">
-        <v>0.3543344884612338</v>
+        <v>0.5747964707269446</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.019871450844363</v>
+        <v>1.822184942360167</v>
       </c>
       <c r="C15">
-        <v>0.7301083928179537</v>
+        <v>0.3982716050078636</v>
       </c>
       <c r="D15">
-        <v>0.2390595530316517</v>
+        <v>0.3997223846580908</v>
       </c>
       <c r="E15">
-        <v>0.02483836974117715</v>
+        <v>0.08046967808607342</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008735784207468119</v>
+        <v>0.002780381475595852</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.75348163497262</v>
+        <v>9.417232568376562</v>
       </c>
       <c r="J15">
-        <v>0.03213813079807082</v>
+        <v>0.01827260340684944</v>
       </c>
       <c r="K15">
-        <v>1.735121662577512</v>
+        <v>2.079789584656965</v>
       </c>
       <c r="L15">
-        <v>0.5304733222630773</v>
+        <v>0.717073628827265</v>
       </c>
       <c r="M15">
-        <v>0.3512484743025936</v>
+        <v>0.5747323000508473</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9597365612478654</v>
+        <v>1.828539337353078</v>
       </c>
       <c r="C16">
-        <v>0.6837865243396948</v>
+        <v>0.3864834883773938</v>
       </c>
       <c r="D16">
-        <v>0.2297218183777403</v>
+        <v>0.3988978609601617</v>
       </c>
       <c r="E16">
-        <v>0.02489795124560246</v>
+        <v>0.08069769029575546</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008814367916119425</v>
+        <v>0.002784163170015878</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.87341536839415</v>
+        <v>9.168501122580778</v>
       </c>
       <c r="J16">
-        <v>0.0301131388105631</v>
+        <v>0.01768060220178924</v>
       </c>
       <c r="K16">
-        <v>1.630840521850899</v>
+        <v>2.071539832227415</v>
       </c>
       <c r="L16">
-        <v>0.5076046261228555</v>
+        <v>0.7129948622580287</v>
       </c>
       <c r="M16">
-        <v>0.3339849692081103</v>
+        <v>0.5744728336303524</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9244859865520993</v>
+        <v>1.832875860914584</v>
       </c>
       <c r="C17">
-        <v>0.6558070404193472</v>
+        <v>0.3792824726925517</v>
       </c>
       <c r="D17">
-        <v>0.2241414719230335</v>
+        <v>0.3984350742254037</v>
       </c>
       <c r="E17">
-        <v>0.02494181490524294</v>
+        <v>0.08084277735320278</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008862634888360299</v>
+        <v>0.002786531576130013</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.34104376407922</v>
+        <v>9.015749267367198</v>
       </c>
       <c r="J17">
-        <v>0.02888826391637167</v>
+        <v>0.0173161654066547</v>
       </c>
       <c r="K17">
-        <v>1.568760667585735</v>
+        <v>2.066895514391689</v>
       </c>
       <c r="L17">
-        <v>0.4938577598868079</v>
+        <v>0.71055321168609</v>
       </c>
       <c r="M17">
-        <v>0.3237465838285019</v>
+        <v>0.5744102026476057</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9047707313085027</v>
+        <v>1.83553095377934</v>
       </c>
       <c r="C18">
-        <v>0.6398612672837487</v>
+        <v>0.3751518000295562</v>
       </c>
       <c r="D18">
-        <v>0.2209827428003592</v>
+        <v>0.398184706499066</v>
       </c>
       <c r="E18">
-        <v>0.02496966753948726</v>
+        <v>0.08092814544421145</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008890434910808223</v>
+        <v>0.002787911683030797</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.03734415050172</v>
+        <v>8.92782764727761</v>
       </c>
       <c r="J18">
-        <v>0.02818950458821945</v>
+        <v>0.01710608001464564</v>
       </c>
       <c r="K18">
-        <v>1.53369847656117</v>
+        <v>2.064377073958127</v>
       </c>
       <c r="L18">
-        <v>0.4860474322403832</v>
+        <v>0.7091710733068055</v>
       </c>
       <c r="M18">
-        <v>0.3179783493441377</v>
+        <v>0.5744096321227019</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8981878254367359</v>
+        <v>1.836457524655287</v>
       </c>
       <c r="C19">
-        <v>0.6344863882018785</v>
+        <v>0.3737551338298601</v>
       </c>
       <c r="D19">
-        <v>0.219921688671846</v>
+        <v>0.3981026526350604</v>
       </c>
       <c r="E19">
-        <v>0.02497954281575954</v>
+        <v>0.08095737934675462</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008899855568962393</v>
+        <v>0.002788382036588931</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.93492405913895</v>
+        <v>8.898047845926243</v>
       </c>
       <c r="J19">
-        <v>0.02795384840722548</v>
+        <v>0.01703486718100322</v>
       </c>
       <c r="K19">
-        <v>1.521933125983452</v>
+        <v>2.063550600374754</v>
       </c>
       <c r="L19">
-        <v>0.4834189133022022</v>
+        <v>0.708706922509549</v>
       </c>
       <c r="M19">
-        <v>0.3160452496933672</v>
+        <v>0.5744155256461738</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9281795940372035</v>
+        <v>1.832397579035273</v>
       </c>
       <c r="C20">
-        <v>0.6587699687778752</v>
+        <v>0.3800478759872021</v>
       </c>
       <c r="D20">
-        <v>0.2247301622816593</v>
+        <v>0.3984827018988426</v>
       </c>
       <c r="E20">
-        <v>0.02493687264992506</v>
+        <v>0.08082713417870924</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008857493201784866</v>
+        <v>0.002786277607799066</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.39745065109548</v>
+        <v>9.032016398455994</v>
       </c>
       <c r="J20">
-        <v>0.02901804445111367</v>
+        <v>0.01735500891918207</v>
       </c>
       <c r="K20">
-        <v>1.57530136367032</v>
+        <v>2.067374084826383</v>
       </c>
       <c r="L20">
-        <v>0.4953109922317793</v>
+        <v>0.7108108280690146</v>
       </c>
       <c r="M20">
-        <v>0.3248238037066074</v>
+        <v>0.5744131999777338</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.035941406974928</v>
+        <v>1.82068006669553</v>
       </c>
       <c r="C21">
-        <v>0.7422147075833436</v>
+        <v>0.4013246020847703</v>
       </c>
       <c r="D21">
-        <v>0.2415191458068051</v>
+        <v>0.3999485637298079</v>
       </c>
       <c r="E21">
-        <v>0.02482530296800967</v>
+        <v>0.08041241731203197</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008715499087833687</v>
+        <v>0.002779420053867455</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.98324503107239</v>
+        <v>9.481402013647426</v>
       </c>
       <c r="J21">
-        <v>0.03266687134631496</v>
+        <v>0.01842506147314182</v>
       </c>
       <c r="K21">
-        <v>1.762674802612025</v>
+        <v>2.082048535788658</v>
       </c>
       <c r="L21">
-        <v>0.5364711290380768</v>
+        <v>0.7181454148489763</v>
       </c>
       <c r="M21">
-        <v>0.3558221169738189</v>
+        <v>0.5748291584970602</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.112322343031053</v>
+        <v>1.814459368113376</v>
       </c>
       <c r="C22">
-        <v>0.7983651593642378</v>
+        <v>0.4153314622887478</v>
       </c>
       <c r="D22">
-        <v>0.2530232551513194</v>
+        <v>0.4010474064023555</v>
       </c>
       <c r="E22">
-        <v>0.02477718299643517</v>
+        <v>0.08015837839090523</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008622663017568425</v>
+        <v>0.002775096164427995</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.04775102452129</v>
+        <v>9.774602760401592</v>
       </c>
       <c r="J22">
-        <v>0.03511714224064733</v>
+        <v>0.01912035268772883</v>
       </c>
       <c r="K22">
-        <v>1.892028214931145</v>
+        <v>2.093005938602857</v>
       </c>
       <c r="L22">
-        <v>0.5643938658073751</v>
+        <v>0.7231372956580202</v>
       </c>
       <c r="M22">
-        <v>0.37735407124012</v>
+        <v>0.5754172884639175</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.070960101559734</v>
+        <v>1.817647698486184</v>
       </c>
       <c r="C23">
-        <v>0.7682327901976294</v>
+        <v>0.4078463759520616</v>
       </c>
       <c r="D23">
-        <v>0.24683051990786</v>
+        <v>0.4004480487402162</v>
       </c>
       <c r="E23">
-        <v>0.02480052013773726</v>
+        <v>0.08029241165055456</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008672234422561435</v>
+        <v>0.002777389511700369</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.47672642754566</v>
+        <v>9.618158684071886</v>
       </c>
       <c r="J23">
-        <v>0.0338026272921681</v>
+        <v>0.01874962622829202</v>
       </c>
       <c r="K23">
-        <v>1.82229742469525</v>
+        <v>2.087032421397367</v>
       </c>
       <c r="L23">
-        <v>0.5493887993438165</v>
+        <v>0.7204548741559904</v>
       </c>
       <c r="M23">
-        <v>0.3657350054113095</v>
+        <v>0.5750744241969343</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9265080086467492</v>
+        <v>1.83261330583602</v>
       </c>
       <c r="C24">
-        <v>0.6574299959529526</v>
+        <v>0.3797018082513546</v>
       </c>
       <c r="D24">
-        <v>0.2244638620474149</v>
+        <v>0.3984611205429474</v>
       </c>
       <c r="E24">
-        <v>0.02493909885164758</v>
+        <v>0.08083420036575006</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008859817596406238</v>
+        <v>0.002786392369553554</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.37194178247259</v>
+        <v>9.024662348556774</v>
       </c>
       <c r="J24">
-        <v>0.02895935388396254</v>
+        <v>0.01733744953132188</v>
       </c>
       <c r="K24">
-        <v>1.5723423698754</v>
+        <v>2.06715725087102</v>
       </c>
       <c r="L24">
-        <v>0.4946536981404108</v>
+        <v>0.7106942924293378</v>
       </c>
       <c r="M24">
-        <v>0.324336427288543</v>
+        <v>0.5744117345130206</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7917208605202006</v>
+        <v>1.854902523088271</v>
       </c>
       <c r="C25">
-        <v>0.5434191037816731</v>
+        <v>0.3497688600402569</v>
       </c>
       <c r="D25">
-        <v>0.2022536306960063</v>
+        <v>0.3969225461347321</v>
       </c>
       <c r="E25">
-        <v>0.02518830229996816</v>
+        <v>0.08149197759612115</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0009063767195693843</v>
+        <v>0.002796787029884529</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.19506392100101</v>
+        <v>8.382042844470334</v>
       </c>
       <c r="J25">
-        <v>0.02394943943933114</v>
+        <v>0.01579609306561736</v>
       </c>
       <c r="K25">
-        <v>1.326907432961633</v>
+        <v>2.051559088565</v>
       </c>
       <c r="L25">
-        <v>0.4392363097288268</v>
+        <v>0.7010157971964048</v>
       </c>
       <c r="M25">
-        <v>0.2842135633773744</v>
+        <v>0.5750520515516513</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.876574238873843</v>
+        <v>0.7064231694993168</v>
       </c>
       <c r="C2">
-        <v>0.3280797911055231</v>
+        <v>0.4628792711192204</v>
       </c>
       <c r="D2">
-        <v>0.3963092732523847</v>
+        <v>0.187206684923396</v>
       </c>
       <c r="E2">
-        <v>0.08203988591942935</v>
+        <v>0.02545138994510054</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002805036148611686</v>
+        <v>0.0009216973608688716</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.90635596266435</v>
+        <v>10.64722333031651</v>
       </c>
       <c r="J2">
-        <v>0.01464460683253677</v>
+        <v>0.0203826987238962</v>
       </c>
       <c r="K2">
-        <v>2.045061748202556</v>
+        <v>1.162007830305015</v>
       </c>
       <c r="L2">
-        <v>0.694616801155945</v>
+        <v>0.4008332986150833</v>
       </c>
       <c r="M2">
-        <v>0.5766854997099458</v>
+        <v>0.2577104055500037</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.894530729083613</v>
+        <v>0.6556399860395743</v>
       </c>
       <c r="C3">
-        <v>0.3135922243317282</v>
+        <v>0.4098734807170956</v>
       </c>
       <c r="D3">
-        <v>0.3962176827289454</v>
+        <v>0.1776838326165944</v>
       </c>
       <c r="E3">
-        <v>0.08245112671865673</v>
+        <v>0.02567683857764358</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002811001998680823</v>
+        <v>0.0009323382425080354</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7.582193094253796</v>
+        <v>9.62207278620042</v>
       </c>
       <c r="J3">
-        <v>0.01385338549802739</v>
+        <v>0.01801612507160044</v>
       </c>
       <c r="K3">
-        <v>2.04375332438272</v>
+        <v>1.058091091341282</v>
       </c>
       <c r="L3">
-        <v>0.6907322584186488</v>
+        <v>0.376010060460942</v>
       </c>
       <c r="M3">
-        <v>0.5785158769421272</v>
+        <v>0.2412951428691592</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.907165124553046</v>
+        <v>0.627454921922407</v>
       </c>
       <c r="C4">
-        <v>0.3047988964764556</v>
+        <v>0.3779504942123708</v>
       </c>
       <c r="D4">
-        <v>0.3963213170383142</v>
+        <v>0.1721298622809968</v>
       </c>
       <c r="E4">
-        <v>0.0827234049123442</v>
+        <v>0.02583782430079662</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002814851446213313</v>
+        <v>0.0009390184582073819</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.382211151095277</v>
+        <v>9.001420143481511</v>
       </c>
       <c r="J4">
-        <v>0.01336206671574303</v>
+        <v>0.01658083564507606</v>
       </c>
       <c r="K4">
-        <v>2.044471758697341</v>
+        <v>0.9975828909952611</v>
       </c>
       <c r="L4">
-        <v>0.6885697899885628</v>
+        <v>0.3612784320071825</v>
       </c>
       <c r="M4">
-        <v>0.5799961747480111</v>
+        <v>0.2318805897942191</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.912717883418111</v>
+        <v>0.6166605866132784</v>
       </c>
       <c r="C5">
-        <v>0.3012409828577916</v>
+        <v>0.3650776486951486</v>
       </c>
       <c r="D5">
-        <v>0.3964037725330058</v>
+        <v>0.1699350112252205</v>
       </c>
       <c r="E5">
-        <v>0.08283934552504579</v>
+        <v>0.02590900789067785</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00281646717169081</v>
+        <v>0.000941780174001974</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.300471390676165</v>
+        <v>8.750316764328858</v>
       </c>
       <c r="J5">
-        <v>0.01316044630803503</v>
+        <v>0.0159994665181884</v>
       </c>
       <c r="K5">
-        <v>2.045146649716912</v>
+        <v>0.9736790432047258</v>
       </c>
       <c r="L5">
-        <v>0.6877445451456623</v>
+        <v>0.3553923348424348</v>
       </c>
       <c r="M5">
-        <v>0.5806890090205528</v>
+        <v>0.2281981595384437</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.913664310653985</v>
+        <v>0.6149082496420988</v>
       </c>
       <c r="C6">
-        <v>0.3006517237260198</v>
+        <v>0.3629477725386607</v>
       </c>
       <c r="D6">
-        <v>0.3964198943274937</v>
+        <v>0.1695745465822398</v>
       </c>
       <c r="E6">
-        <v>0.08285889882914788</v>
+        <v>0.0259211624122262</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002816738308189657</v>
+        <v>0.0009422412103066113</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.286883507603648</v>
+        <v>8.708720186824223</v>
       </c>
       <c r="J6">
-        <v>0.0131268820256274</v>
+        <v>0.01590311724531901</v>
       </c>
       <c r="K6">
-        <v>2.045281778590862</v>
+        <v>0.9697532858988893</v>
       </c>
       <c r="L6">
-        <v>0.6876108946265873</v>
+        <v>0.3544217247652028</v>
       </c>
       <c r="M6">
-        <v>0.5808094645580972</v>
+        <v>0.2275956438445235</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.907238375286028</v>
+        <v>0.6273066242395373</v>
       </c>
       <c r="C7">
-        <v>0.3047508105098018</v>
+        <v>0.3777763615550782</v>
       </c>
       <c r="D7">
-        <v>0.3963222661650718</v>
+        <v>0.1720999912575394</v>
       </c>
       <c r="E7">
-        <v>0.08272494832707267</v>
+        <v>0.02583876182665801</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002814873045780243</v>
+        <v>0.0009390555405404122</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.381109784586641</v>
+        <v>8.998026810359761</v>
       </c>
       <c r="J7">
-        <v>0.01335935330297744</v>
+        <v>0.01657298202692203</v>
       </c>
       <c r="K7">
-        <v>2.044479314042945</v>
+        <v>0.9972575577842804</v>
       </c>
       <c r="L7">
-        <v>0.6885584338015747</v>
+        <v>0.3611985895501704</v>
       </c>
       <c r="M7">
-        <v>0.580005155802251</v>
+        <v>0.2318303196887435</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.88243139162347</v>
+        <v>0.6882519343557476</v>
       </c>
       <c r="C8">
-        <v>0.3230631408600857</v>
+        <v>0.4444606068957455</v>
       </c>
       <c r="D8">
-        <v>0.3962445237216343</v>
+        <v>0.1838590419412185</v>
       </c>
       <c r="E8">
-        <v>0.08217758501594741</v>
+        <v>0.02552438387258871</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002807054593731703</v>
+        <v>0.0009253375302878848</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.794775762709577</v>
+        <v>10.2916773622446</v>
       </c>
       <c r="J8">
-        <v>0.01437292441426052</v>
+        <v>0.01956240784448582</v>
       </c>
       <c r="K8">
-        <v>2.044294406250941</v>
+        <v>1.125445270702301</v>
       </c>
       <c r="L8">
-        <v>0.6932311888442371</v>
+        <v>0.3921614091102441</v>
       </c>
       <c r="M8">
-        <v>0.577242615002902</v>
+        <v>0.2519042628501573</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.846575571143177</v>
+        <v>0.8347094601382423</v>
       </c>
       <c r="C9">
-        <v>0.359796389948599</v>
+        <v>0.5812142472330208</v>
       </c>
       <c r="D9">
-        <v>0.3973600875428502</v>
+        <v>0.2095116110749728</v>
       </c>
       <c r="E9">
-        <v>0.08126055915141617</v>
+        <v>0.02509162167662993</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002793193562724695</v>
+        <v>0.0008994694570707682</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.598874969698073</v>
+        <v>12.91826946563322</v>
       </c>
       <c r="J9">
-        <v>0.01631781170488367</v>
+        <v>0.02561432194762503</v>
       </c>
       <c r="K9">
-        <v>2.056036328694233</v>
+        <v>1.406826393023977</v>
       </c>
       <c r="L9">
-        <v>0.7041628225763645</v>
+        <v>0.4574875288269311</v>
       </c>
       <c r="M9">
-        <v>0.5746556432634478</v>
+        <v>0.2972052323582801</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.828066321159554</v>
+        <v>0.9638377935114022</v>
       </c>
       <c r="C10">
-        <v>0.3873066931409426</v>
+        <v>0.6870000891929351</v>
       </c>
       <c r="D10">
-        <v>0.3989528110503926</v>
+        <v>0.2303657223260984</v>
       </c>
       <c r="E10">
-        <v>0.08068139446813483</v>
+        <v>0.02489330608747142</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002783895335344273</v>
+        <v>0.0008808864309631324</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9.185922867908459</v>
+        <v>14.9345204957641</v>
       </c>
       <c r="J10">
-        <v>0.01772212364421222</v>
+        <v>0.03025373042396495</v>
       </c>
       <c r="K10">
-        <v>2.072090511703465</v>
+        <v>1.638015215578207</v>
       </c>
       <c r="L10">
-        <v>0.7132764854152072</v>
+        <v>0.5091868287906749</v>
       </c>
       <c r="M10">
-        <v>0.574484786149938</v>
+        <v>0.3351702068092806</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.821355650162474</v>
+        <v>1.028628038278129</v>
       </c>
       <c r="C11">
-        <v>0.39994002638295</v>
+        <v>0.7367186128064134</v>
       </c>
       <c r="D11">
-        <v>0.399845370379893</v>
+        <v>0.2404015768075141</v>
       </c>
       <c r="E11">
-        <v>0.08043829822409698</v>
+        <v>0.02483111148764383</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002779855192009762</v>
+        <v>0.0008724695817119432</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.452312473686163</v>
+        <v>15.87894749853695</v>
       </c>
       <c r="J11">
-        <v>0.01835596187957123</v>
+        <v>0.03242685334059914</v>
       </c>
       <c r="K11">
-        <v>2.081018079423615</v>
+        <v>1.750150996669305</v>
       </c>
       <c r="L11">
-        <v>0.7176585908524942</v>
+        <v>0.5337471750523832</v>
       </c>
       <c r="M11">
-        <v>0.5747837801506535</v>
+        <v>0.3537426487642463</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.81906100170545</v>
+        <v>1.05416994909973</v>
       </c>
       <c r="C12">
-        <v>0.4047413501402843</v>
+        <v>0.7558186094274788</v>
       </c>
       <c r="D12">
-        <v>0.4002075221288095</v>
+        <v>0.2442920188262576</v>
       </c>
       <c r="E12">
-        <v>0.08034916082413979</v>
+        <v>0.02481179348429663</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002778352383521125</v>
+        <v>0.0008692822415634159</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.553102152071062</v>
+        <v>16.24131977921405</v>
       </c>
       <c r="J12">
-        <v>0.01859528612650863</v>
+        <v>0.03326080922902719</v>
       </c>
       <c r="K12">
-        <v>2.084633177825481</v>
+        <v>1.793780527968067</v>
       </c>
       <c r="L12">
-        <v>0.7193520166387799</v>
+        <v>0.5432207007695666</v>
       </c>
       <c r="M12">
-        <v>0.5749512567824766</v>
+        <v>0.360991133228211</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.819544218326371</v>
+        <v>1.048621807555236</v>
       </c>
       <c r="C13">
-        <v>0.4037065228227448</v>
+        <v>0.7516921963049299</v>
       </c>
       <c r="D13">
-        <v>0.4001284518079586</v>
+        <v>0.2434499405793673</v>
       </c>
       <c r="E13">
-        <v>0.08036822856068859</v>
+        <v>0.02481576205605851</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002778674837474917</v>
+        <v>0.0008699687888584191</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.531398986887439</v>
+        <v>16.16305119749961</v>
       </c>
       <c r="J13">
-        <v>0.01854377400910678</v>
+        <v>0.03308067490273103</v>
       </c>
       <c r="K13">
-        <v>2.083844162141759</v>
+        <v>1.784329355115716</v>
       </c>
       <c r="L13">
-        <v>0.7189857933994119</v>
+        <v>0.541172302453532</v>
       </c>
       <c r="M13">
-        <v>0.5749127733475206</v>
+        <v>0.3594199576815811</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.821161922715362</v>
+        <v>1.030708330671132</v>
       </c>
       <c r="C14">
-        <v>0.4003346847513285</v>
+        <v>0.7382842450100497</v>
       </c>
       <c r="D14">
-        <v>0.3998746806479545</v>
+        <v>0.2407197706426558</v>
       </c>
       <c r="E14">
-        <v>0.08043090642135908</v>
+        <v>0.02482943604528032</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002779731012694372</v>
+        <v>0.0008722073921612529</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.460606179374565</v>
+        <v>15.9086599491352</v>
       </c>
       <c r="J14">
-        <v>0.01837566506694444</v>
+        <v>0.0324952292831604</v>
       </c>
       <c r="K14">
-        <v>2.081310792704841</v>
+        <v>1.753716015555824</v>
       </c>
       <c r="L14">
-        <v>0.7177972279774423</v>
+        <v>0.5345229536511624</v>
       </c>
       <c r="M14">
-        <v>0.5747964707269446</v>
+        <v>0.3543344884612125</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.822184942360167</v>
+        <v>1.019871450844192</v>
       </c>
       <c r="C15">
-        <v>0.3982716050078636</v>
+        <v>0.7301083928176695</v>
       </c>
       <c r="D15">
-        <v>0.3997223846580908</v>
+        <v>0.239059553032007</v>
       </c>
       <c r="E15">
-        <v>0.08046967808607342</v>
+        <v>0.02483836974108566</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002780381475595852</v>
+        <v>0.0008735784207849484</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.417232568376562</v>
+        <v>15.75348163497335</v>
       </c>
       <c r="J15">
-        <v>0.01827260340684944</v>
+        <v>0.03213813079796424</v>
       </c>
       <c r="K15">
-        <v>2.079789584656965</v>
+        <v>1.735121662577313</v>
       </c>
       <c r="L15">
-        <v>0.717073628827265</v>
+        <v>0.5304733222630063</v>
       </c>
       <c r="M15">
-        <v>0.5747323000508473</v>
+        <v>0.3512484743025865</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.828539337353078</v>
+        <v>0.9597365612478086</v>
       </c>
       <c r="C16">
-        <v>0.3864834883773938</v>
+        <v>0.6837865243389558</v>
       </c>
       <c r="D16">
-        <v>0.3988978609601617</v>
+        <v>0.2297218183779961</v>
       </c>
       <c r="E16">
-        <v>0.08069769029575546</v>
+        <v>0.02489795124555449</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002784163170015878</v>
+        <v>0.0008814367917473476</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.168501122580778</v>
+        <v>14.87341536839446</v>
       </c>
       <c r="J16">
-        <v>0.01768060220178924</v>
+        <v>0.03011313881060218</v>
       </c>
       <c r="K16">
-        <v>2.071539832227415</v>
+        <v>1.630840521850871</v>
       </c>
       <c r="L16">
-        <v>0.7129948622580287</v>
+        <v>0.5076046261228981</v>
       </c>
       <c r="M16">
-        <v>0.5744728336303524</v>
+        <v>0.3339849692081032</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.832875860914584</v>
+        <v>0.9244859865521562</v>
       </c>
       <c r="C17">
-        <v>0.3792824726925517</v>
+        <v>0.655807040421422</v>
       </c>
       <c r="D17">
-        <v>0.3984350742254037</v>
+        <v>0.224141471923005</v>
       </c>
       <c r="E17">
-        <v>0.08084277735320278</v>
+        <v>0.02494181490510528</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002786531576130013</v>
+        <v>0.0008862634889652465</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9.015749267367198</v>
+        <v>14.34104376407922</v>
       </c>
       <c r="J17">
-        <v>0.0173161654066547</v>
+        <v>0.02888826391696142</v>
       </c>
       <c r="K17">
-        <v>2.066895514391689</v>
+        <v>1.568760667585508</v>
       </c>
       <c r="L17">
-        <v>0.71055321168609</v>
+        <v>0.49385775988641</v>
       </c>
       <c r="M17">
-        <v>0.5744102026476057</v>
+        <v>0.3237465838284876</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.83553095377934</v>
+        <v>0.9047707313081901</v>
       </c>
       <c r="C18">
-        <v>0.3751518000295562</v>
+        <v>0.6398612672825266</v>
       </c>
       <c r="D18">
-        <v>0.398184706499066</v>
+        <v>0.2209827428009419</v>
       </c>
       <c r="E18">
-        <v>0.08092814544421145</v>
+        <v>0.02496966753947572</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002787911683030797</v>
+        <v>0.0008890434914346865</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.92782764727761</v>
+        <v>14.0373441505015</v>
       </c>
       <c r="J18">
-        <v>0.01710608001464564</v>
+        <v>0.02818950458849656</v>
       </c>
       <c r="K18">
-        <v>2.064377073958127</v>
+        <v>1.533698476561284</v>
       </c>
       <c r="L18">
-        <v>0.7091710733068055</v>
+        <v>0.4860474322401558</v>
       </c>
       <c r="M18">
-        <v>0.5744096321227019</v>
+        <v>0.3179783493442088</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.836457524655287</v>
+        <v>0.8981878254361675</v>
       </c>
       <c r="C19">
-        <v>0.3737551338298601</v>
+        <v>0.6344863882021627</v>
       </c>
       <c r="D19">
-        <v>0.3981026526350604</v>
+        <v>0.2199216886713202</v>
       </c>
       <c r="E19">
-        <v>0.08095737934675462</v>
+        <v>0.02497954281580039</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002788382036588931</v>
+        <v>0.0008899855569288155</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.898047845926243</v>
+        <v>13.93492405913969</v>
       </c>
       <c r="J19">
-        <v>0.01703486718100322</v>
+        <v>0.0279538484071864</v>
       </c>
       <c r="K19">
-        <v>2.063550600374754</v>
+        <v>1.521933125983452</v>
       </c>
       <c r="L19">
-        <v>0.708706922509549</v>
+        <v>0.4834189133024012</v>
       </c>
       <c r="M19">
-        <v>0.5744155256461738</v>
+        <v>0.316045249693282</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.832397579035273</v>
+        <v>0.9281795940372035</v>
       </c>
       <c r="C20">
-        <v>0.3800478759872021</v>
+        <v>0.6587699687782447</v>
       </c>
       <c r="D20">
-        <v>0.3984827018988426</v>
+        <v>0.2247301622821709</v>
       </c>
       <c r="E20">
-        <v>0.08082713417870924</v>
+        <v>0.02493687264991795</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002786277607799066</v>
+        <v>0.0008857493204335919</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.032016398455994</v>
+        <v>14.39745065109565</v>
       </c>
       <c r="J20">
-        <v>0.01735500891918207</v>
+        <v>0.02901804445114209</v>
       </c>
       <c r="K20">
-        <v>2.067374084826383</v>
+        <v>1.575301363670405</v>
       </c>
       <c r="L20">
-        <v>0.7108108280690146</v>
+        <v>0.4953109922322199</v>
       </c>
       <c r="M20">
-        <v>0.5744131999777338</v>
+        <v>0.3248238037065505</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.82068006669553</v>
+        <v>1.035941406974871</v>
       </c>
       <c r="C21">
-        <v>0.4013246020847703</v>
+        <v>0.7422147075828036</v>
       </c>
       <c r="D21">
-        <v>0.3999485637298079</v>
+        <v>0.2415191458072599</v>
       </c>
       <c r="E21">
-        <v>0.08041241731203197</v>
+        <v>0.02482530296805763</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002779420053867455</v>
+        <v>0.0008715499084253043</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.481402013647426</v>
+        <v>15.98324503107244</v>
       </c>
       <c r="J21">
-        <v>0.01842506147314182</v>
+        <v>0.03266687134668089</v>
       </c>
       <c r="K21">
-        <v>2.082048535788658</v>
+        <v>1.762674802612025</v>
       </c>
       <c r="L21">
-        <v>0.7181454148489763</v>
+        <v>0.5364711290382189</v>
       </c>
       <c r="M21">
-        <v>0.5748291584970602</v>
+        <v>0.3558221169738616</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.814459368113376</v>
+        <v>1.112322343031252</v>
       </c>
       <c r="C22">
-        <v>0.4153314622887478</v>
+        <v>0.7983651593648062</v>
       </c>
       <c r="D22">
-        <v>0.4010474064023555</v>
+        <v>0.2530232551506799</v>
       </c>
       <c r="E22">
-        <v>0.08015837839090523</v>
+        <v>0.02477718299636233</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002775096164427995</v>
+        <v>0.0008622663019090717</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.774602760401592</v>
+        <v>17.04775102452163</v>
       </c>
       <c r="J22">
-        <v>0.01912035268772883</v>
+        <v>0.03511714224046258</v>
       </c>
       <c r="K22">
-        <v>2.093005938602857</v>
+        <v>1.892028214931031</v>
       </c>
       <c r="L22">
-        <v>0.7231372956580202</v>
+        <v>0.5643938658074319</v>
       </c>
       <c r="M22">
-        <v>0.5754172884639175</v>
+        <v>0.3773540712400916</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.817647698486184</v>
+        <v>1.070960101559194</v>
       </c>
       <c r="C23">
-        <v>0.4078463759520616</v>
+        <v>0.768232790197203</v>
       </c>
       <c r="D23">
-        <v>0.4004480487402162</v>
+        <v>0.2468305199079026</v>
       </c>
       <c r="E23">
-        <v>0.08029241165055456</v>
+        <v>0.02480052013765999</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002777389511700369</v>
+        <v>0.0008672234425535746</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.618158684071886</v>
+        <v>16.47672642754566</v>
       </c>
       <c r="J23">
-        <v>0.01874962622829202</v>
+        <v>0.0338026272920402</v>
       </c>
       <c r="K23">
-        <v>2.087032421397367</v>
+        <v>1.822297424695023</v>
       </c>
       <c r="L23">
-        <v>0.7204548741559904</v>
+        <v>0.5493887993432907</v>
       </c>
       <c r="M23">
-        <v>0.5750744241969343</v>
+        <v>0.3657350054112598</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.83261330583602</v>
+        <v>0.9265080086465787</v>
       </c>
       <c r="C24">
-        <v>0.3797018082513546</v>
+        <v>0.6574299959525831</v>
       </c>
       <c r="D24">
-        <v>0.3984611205429474</v>
+        <v>0.2244638620475428</v>
       </c>
       <c r="E24">
-        <v>0.08083420036575006</v>
+        <v>0.02493909885157741</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002786392369553554</v>
+        <v>0.0008859817594909242</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.024662348556774</v>
+        <v>14.37194178247245</v>
       </c>
       <c r="J24">
-        <v>0.01733744953132188</v>
+        <v>0.02895935388380266</v>
       </c>
       <c r="K24">
-        <v>2.06715725087102</v>
+        <v>1.572342369875173</v>
       </c>
       <c r="L24">
-        <v>0.7106942924293378</v>
+        <v>0.4946536981406382</v>
       </c>
       <c r="M24">
-        <v>0.5744117345130206</v>
+        <v>0.3243364272885501</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.854902523088271</v>
+        <v>0.7917208605200585</v>
       </c>
       <c r="C25">
-        <v>0.3497688600402569</v>
+        <v>0.5434191037816447</v>
       </c>
       <c r="D25">
-        <v>0.3969225461347321</v>
+        <v>0.2022536306956084</v>
       </c>
       <c r="E25">
-        <v>0.08149197759612115</v>
+        <v>0.02518830229994062</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002796787029884529</v>
+        <v>0.0009063767194031275</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.382042844470334</v>
+        <v>12.19506392100115</v>
       </c>
       <c r="J25">
-        <v>0.01579609306561736</v>
+        <v>0.02394943943943062</v>
       </c>
       <c r="K25">
-        <v>2.051559088565</v>
+        <v>1.326907432961519</v>
       </c>
       <c r="L25">
-        <v>0.7010157971964048</v>
+        <v>0.439236309728912</v>
       </c>
       <c r="M25">
-        <v>0.5750520515516513</v>
+        <v>0.2842135633773495</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7064231694993168</v>
+        <v>2.429794980413646</v>
       </c>
       <c r="C2">
-        <v>0.4628792711192204</v>
+        <v>0.6874090781680025</v>
       </c>
       <c r="D2">
-        <v>0.187206684923396</v>
+        <v>0.4016240249580534</v>
       </c>
       <c r="E2">
-        <v>0.02545138994510054</v>
+        <v>0.1409016587311065</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0009216973608688716</v>
+        <v>0.3724253395310697</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0007012780804822594</v>
       </c>
       <c r="I2">
-        <v>10.64722333031651</v>
+        <v>0.0004668438481325587</v>
       </c>
       <c r="J2">
-        <v>0.0203826987238962</v>
+        <v>0.3139522846038503</v>
       </c>
       <c r="K2">
-        <v>1.162007830305015</v>
+        <v>0.2266536207383592</v>
       </c>
       <c r="L2">
-        <v>0.4008332986150833</v>
+        <v>0.06591693385887254</v>
       </c>
       <c r="M2">
-        <v>0.2577104055500037</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7794680371127995</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.395136429280484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6556399860395743</v>
+        <v>2.119207173786776</v>
       </c>
       <c r="C3">
-        <v>0.4098734807170956</v>
+        <v>0.6039026331758635</v>
       </c>
       <c r="D3">
-        <v>0.1776838326165944</v>
+        <v>0.3696925390056123</v>
       </c>
       <c r="E3">
-        <v>0.02567683857764358</v>
+        <v>0.1308282657023625</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0009323382425080354</v>
+        <v>0.3558809577359057</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001710763368269252</v>
       </c>
       <c r="I3">
-        <v>9.62207278620042</v>
+        <v>0.0004786780240570998</v>
       </c>
       <c r="J3">
-        <v>0.01801612507160044</v>
+        <v>0.3111347503614041</v>
       </c>
       <c r="K3">
-        <v>1.058091091341282</v>
+        <v>0.2351031712714757</v>
       </c>
       <c r="L3">
-        <v>0.376010060460942</v>
+        <v>0.06132977631549608</v>
       </c>
       <c r="M3">
-        <v>0.2412951428691592</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6803791978626279</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.353839525786597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.627454921922407</v>
+        <v>1.92808044127446</v>
       </c>
       <c r="C4">
-        <v>0.3779504942123708</v>
+        <v>0.5529558465197226</v>
       </c>
       <c r="D4">
-        <v>0.1721298622809968</v>
+        <v>0.3502452152815607</v>
       </c>
       <c r="E4">
-        <v>0.02583782430079662</v>
+        <v>0.1246375553474621</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009390184582073819</v>
+        <v>0.3461854609293695</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.002582953218191575</v>
       </c>
       <c r="I4">
-        <v>9.001420143481511</v>
+        <v>0.0006801788396288977</v>
       </c>
       <c r="J4">
-        <v>0.01658083564507606</v>
+        <v>0.3097196413394059</v>
       </c>
       <c r="K4">
-        <v>0.9975828909952611</v>
+        <v>0.240634183691709</v>
       </c>
       <c r="L4">
-        <v>0.3612784320071825</v>
+        <v>0.05848658325762557</v>
       </c>
       <c r="M4">
-        <v>0.2318805897942191</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6195873665594078</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.33011474645356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6166605866132784</v>
+        <v>1.849931922349867</v>
       </c>
       <c r="C5">
-        <v>0.3650776486951486</v>
+        <v>0.5333076149969713</v>
       </c>
       <c r="D5">
-        <v>0.1699350112252205</v>
+        <v>0.3423228346378551</v>
       </c>
       <c r="E5">
-        <v>0.02590900789067785</v>
+        <v>0.1220892790965387</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000941780174001974</v>
+        <v>0.3418424951944843</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00300012840456243</v>
       </c>
       <c r="I5">
-        <v>8.750316764328858</v>
+        <v>0.0008767276221370857</v>
       </c>
       <c r="J5">
-        <v>0.0159994665181884</v>
+        <v>0.3089564559647471</v>
       </c>
       <c r="K5">
-        <v>0.9736790432047258</v>
+        <v>0.2426871589135366</v>
       </c>
       <c r="L5">
-        <v>0.3553923348424348</v>
+        <v>0.05730374180105891</v>
       </c>
       <c r="M5">
-        <v>0.2281981595384437</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5950355346805836</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.319222947025764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6149082496420988</v>
+        <v>1.836768312385402</v>
       </c>
       <c r="C6">
-        <v>0.3629477725386607</v>
+        <v>0.5313226447843533</v>
       </c>
       <c r="D6">
-        <v>0.1695745465822398</v>
+        <v>0.3409676980962928</v>
       </c>
       <c r="E6">
-        <v>0.0259211624122262</v>
+        <v>0.121637690366267</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009422412103066113</v>
+        <v>0.3405150970180628</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003074612782690167</v>
       </c>
       <c r="I6">
-        <v>8.708720186824223</v>
+        <v>0.001002931560696751</v>
       </c>
       <c r="J6">
-        <v>0.01590311724531901</v>
+        <v>0.3085132708588674</v>
       </c>
       <c r="K6">
-        <v>0.9697532858988893</v>
+        <v>0.2426868577867118</v>
       </c>
       <c r="L6">
-        <v>0.3544217247652028</v>
+        <v>0.05708652059757036</v>
       </c>
       <c r="M6">
-        <v>0.2275956438445235</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.591221499182204</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.315466345760129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6273066242395373</v>
+        <v>1.92653395712324</v>
       </c>
       <c r="C7">
-        <v>0.3777763615550782</v>
+        <v>0.5561762410202391</v>
       </c>
       <c r="D7">
-        <v>0.1720999912575394</v>
+        <v>0.3500246306469279</v>
       </c>
       <c r="E7">
-        <v>0.02583876182665801</v>
+        <v>0.1245262933586559</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0009390555405404122</v>
+        <v>0.34445332752761</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002592334383158423</v>
       </c>
       <c r="I7">
-        <v>8.998026810359761</v>
+        <v>0.0009152116550259493</v>
       </c>
       <c r="J7">
-        <v>0.01657298202692203</v>
+        <v>0.3088337766846223</v>
       </c>
       <c r="K7">
-        <v>0.9972575577842804</v>
+        <v>0.2397189735809349</v>
       </c>
       <c r="L7">
-        <v>0.3611985895501704</v>
+        <v>0.0584153289852658</v>
       </c>
       <c r="M7">
-        <v>0.2318303196887435</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6199744173570068</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.324586602622773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6882519343557476</v>
+        <v>2.322126506542304</v>
       </c>
       <c r="C8">
-        <v>0.4444606068957455</v>
+        <v>0.6631995346368456</v>
       </c>
       <c r="D8">
-        <v>0.1838590419412185</v>
+        <v>0.3904306928055377</v>
       </c>
       <c r="E8">
-        <v>0.02552438387258871</v>
+        <v>0.1373285353943103</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0009253375302878848</v>
+        <v>0.3644106776378919</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0009981463413407665</v>
       </c>
       <c r="I8">
-        <v>10.2916773622446</v>
+        <v>0.0007062778221431643</v>
       </c>
       <c r="J8">
-        <v>0.01956240784448582</v>
+        <v>0.3117625761732441</v>
       </c>
       <c r="K8">
-        <v>1.125445270702301</v>
+        <v>0.2282639461761562</v>
       </c>
       <c r="L8">
-        <v>0.3921614091102441</v>
+        <v>0.06426784689097786</v>
       </c>
       <c r="M8">
-        <v>0.2519042628501573</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7462445765759895</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.373451025786679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8347094601382423</v>
+        <v>3.095900516315055</v>
       </c>
       <c r="C9">
-        <v>0.5812142472330208</v>
+        <v>0.8697109461198522</v>
       </c>
       <c r="D9">
-        <v>0.2095116110749728</v>
+        <v>0.4712811982778931</v>
       </c>
       <c r="E9">
-        <v>0.02509162167662993</v>
+        <v>0.1625710214567739</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008994694570707682</v>
+        <v>0.4105424152633788</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.471927170726417E-05</v>
       </c>
       <c r="I9">
-        <v>12.91826946563322</v>
+        <v>0.001617899194911843</v>
       </c>
       <c r="J9">
-        <v>0.02561432194762503</v>
+        <v>0.3217043207577461</v>
       </c>
       <c r="K9">
-        <v>1.406826393023977</v>
+        <v>0.2103291503381151</v>
       </c>
       <c r="L9">
-        <v>0.4574875288269311</v>
+        <v>0.07567212251991862</v>
       </c>
       <c r="M9">
-        <v>0.2972052323582801</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9932239398193019</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.492825600471917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9638377935114022</v>
+        <v>3.670755847205896</v>
       </c>
       <c r="C10">
-        <v>0.6870000891929351</v>
+        <v>1.025004130113189</v>
       </c>
       <c r="D10">
-        <v>0.2303657223260984</v>
+        <v>0.5206553839342973</v>
       </c>
       <c r="E10">
-        <v>0.02489330608747142</v>
+        <v>0.17429783886449</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008808864309631324</v>
+        <v>0.438149965754647</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0009178300234875536</v>
       </c>
       <c r="I10">
-        <v>14.9345204957641</v>
+        <v>0.00357079334175836</v>
       </c>
       <c r="J10">
-        <v>0.03025373042396495</v>
+        <v>0.326172351580496</v>
       </c>
       <c r="K10">
-        <v>1.638015215578207</v>
+        <v>0.1956423046975253</v>
       </c>
       <c r="L10">
-        <v>0.5091868287906749</v>
+        <v>0.0800177720206996</v>
       </c>
       <c r="M10">
-        <v>0.3351702068092806</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.162082409796497</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.561223681901907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.028628038278129</v>
+        <v>3.999349192754437</v>
       </c>
       <c r="C11">
-        <v>0.7367186128064134</v>
+        <v>1.097475413013797</v>
       </c>
       <c r="D11">
-        <v>0.2404015768075141</v>
+        <v>0.4507670635685912</v>
       </c>
       <c r="E11">
-        <v>0.02483111148764383</v>
+        <v>0.1270981837721941</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008724695817119432</v>
+        <v>0.3785711925731619</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01949230689553616</v>
       </c>
       <c r="I11">
-        <v>15.87894749853695</v>
+        <v>0.004779759547442808</v>
       </c>
       <c r="J11">
-        <v>0.03242685334059914</v>
+        <v>0.2917091321541676</v>
       </c>
       <c r="K11">
-        <v>1.750150996669305</v>
+        <v>0.1642873279806434</v>
       </c>
       <c r="L11">
-        <v>0.5337471750523832</v>
+        <v>0.05932376224400926</v>
       </c>
       <c r="M11">
-        <v>0.3537426487642463</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.121334234708911</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.362969250345543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05416994909973</v>
+        <v>4.159058595847</v>
       </c>
       <c r="C12">
-        <v>0.7558186094274788</v>
+        <v>1.119934980367191</v>
       </c>
       <c r="D12">
-        <v>0.2442920188262576</v>
+        <v>0.3861836417585636</v>
       </c>
       <c r="E12">
-        <v>0.02481179348429663</v>
+        <v>0.09436420031167891</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008692822415634159</v>
+        <v>0.32790472976491</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05803965063358874</v>
       </c>
       <c r="I12">
-        <v>16.24131977921405</v>
+        <v>0.004952058336275655</v>
       </c>
       <c r="J12">
-        <v>0.03326080922902719</v>
+        <v>0.2642187422465128</v>
       </c>
       <c r="K12">
-        <v>1.793780527968067</v>
+        <v>0.145067638514</v>
       </c>
       <c r="L12">
-        <v>0.5432207007695666</v>
+        <v>0.05701292947245928</v>
       </c>
       <c r="M12">
-        <v>0.360991133228211</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.050814455418553</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.198071656466709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.048621807555236</v>
+        <v>4.195667123162309</v>
       </c>
       <c r="C13">
-        <v>0.7516921963049299</v>
+        <v>1.110536182571423</v>
       </c>
       <c r="D13">
-        <v>0.2434499405793673</v>
+        <v>0.3220652800806647</v>
       </c>
       <c r="E13">
-        <v>0.02481576205605851</v>
+        <v>0.07077512681667208</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008699687888584191</v>
+        <v>0.2784764517826304</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1135533686308889</v>
       </c>
       <c r="I13">
-        <v>16.16305119749961</v>
+        <v>0.004628545905736026</v>
       </c>
       <c r="J13">
-        <v>0.03308067490273103</v>
+        <v>0.2390591114995075</v>
       </c>
       <c r="K13">
-        <v>1.784329355115716</v>
+        <v>0.1323727696091153</v>
       </c>
       <c r="L13">
-        <v>0.541172302453532</v>
+        <v>0.06828639566208849</v>
       </c>
       <c r="M13">
-        <v>0.3594199576815811</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.9550213189342784</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.040577690650949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.030708330671132</v>
+        <v>4.165230855963785</v>
       </c>
       <c r="C14">
-        <v>0.7382842450100497</v>
+        <v>1.09066492446226</v>
       </c>
       <c r="D14">
-        <v>0.2407197706426558</v>
+        <v>0.278410746009186</v>
       </c>
       <c r="E14">
-        <v>0.02482943604528032</v>
+        <v>0.05973650707231748</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008722073921612529</v>
+        <v>0.2447474651853696</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1627156729740733</v>
       </c>
       <c r="I14">
-        <v>15.9086599491352</v>
+        <v>0.004271432762624983</v>
       </c>
       <c r="J14">
-        <v>0.0324952292831604</v>
+        <v>0.2226027642862292</v>
       </c>
       <c r="K14">
-        <v>1.753716015555824</v>
+        <v>0.1266724109239243</v>
       </c>
       <c r="L14">
-        <v>0.5345229536511624</v>
+        <v>0.08423481014639478</v>
       </c>
       <c r="M14">
-        <v>0.3543344884612125</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.8775379659180444</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.934550178510392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.019871450844192</v>
+        <v>4.130798582163209</v>
       </c>
       <c r="C15">
-        <v>0.7301083928176695</v>
+        <v>1.080536291861165</v>
       </c>
       <c r="D15">
-        <v>0.239059553032007</v>
+        <v>0.267342651319538</v>
       </c>
       <c r="E15">
-        <v>0.02483836974108566</v>
+        <v>0.05777171825942684</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008735784207849484</v>
+        <v>0.2360205598849774</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1751500068778427</v>
       </c>
       <c r="I15">
-        <v>15.75348163497335</v>
+        <v>0.00419080526366411</v>
       </c>
       <c r="J15">
-        <v>0.03213813079796424</v>
+        <v>0.2187129736698026</v>
       </c>
       <c r="K15">
-        <v>1.735121662577313</v>
+        <v>0.1261591202012742</v>
       </c>
       <c r="L15">
-        <v>0.5304733222630063</v>
+        <v>0.08887061353119918</v>
       </c>
       <c r="M15">
-        <v>0.3512484743025865</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.8536279610874971</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.9078660438877506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9597365612478086</v>
+        <v>3.872781772669271</v>
       </c>
       <c r="C16">
-        <v>0.6837865243389558</v>
+        <v>1.017500484041733</v>
       </c>
       <c r="D16">
-        <v>0.2297218183779961</v>
+        <v>0.2606192195764834</v>
       </c>
       <c r="E16">
-        <v>0.02489795124555449</v>
+        <v>0.05810538106077257</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008814367917473476</v>
+        <v>0.2335547550904096</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620920750996788</v>
       </c>
       <c r="I16">
-        <v>14.87341536839446</v>
+        <v>0.003435752425230199</v>
       </c>
       <c r="J16">
-        <v>0.03011313881060218</v>
+        <v>0.2213722464913701</v>
       </c>
       <c r="K16">
-        <v>1.630840521850871</v>
+        <v>0.1339767852076736</v>
       </c>
       <c r="L16">
-        <v>0.5076046261228981</v>
+        <v>0.08428929756919601</v>
       </c>
       <c r="M16">
-        <v>0.3339849692081032</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.8036237401115613</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.9079894580904835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9244859865521562</v>
+        <v>3.691682659358378</v>
       </c>
       <c r="C17">
-        <v>0.655807040421422</v>
+        <v>0.9800016628412038</v>
       </c>
       <c r="D17">
-        <v>0.224141471923005</v>
+        <v>0.2779717498471825</v>
       </c>
       <c r="E17">
-        <v>0.02494181490510528</v>
+        <v>0.06328671758717075</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008862634889652465</v>
+        <v>0.2492375759353038</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241848728003703</v>
       </c>
       <c r="I17">
-        <v>14.34104376407922</v>
+        <v>0.003096299309099493</v>
       </c>
       <c r="J17">
-        <v>0.02888826391696142</v>
+        <v>0.2320414896072336</v>
       </c>
       <c r="K17">
-        <v>1.568760667585508</v>
+        <v>0.1428544110376988</v>
       </c>
       <c r="L17">
-        <v>0.49385775988641</v>
+        <v>0.07099071139239044</v>
       </c>
       <c r="M17">
-        <v>0.3237465838284876</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.8059201878608206</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.9634452166346392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9047707313081901</v>
+        <v>3.557235060465018</v>
       </c>
       <c r="C18">
-        <v>0.6398612672825266</v>
+        <v>0.9569140832173559</v>
       </c>
       <c r="D18">
-        <v>0.2209827428009419</v>
+        <v>0.3206545706135131</v>
       </c>
       <c r="E18">
-        <v>0.02496966753947572</v>
+        <v>0.0779537247804285</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008890434914346865</v>
+        <v>0.28492986063074</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07133858774216861</v>
       </c>
       <c r="I18">
-        <v>14.0373441505015</v>
+        <v>0.002750965233765612</v>
       </c>
       <c r="J18">
-        <v>0.02818950458849656</v>
+        <v>0.2520430866158136</v>
       </c>
       <c r="K18">
-        <v>1.533698476561284</v>
+        <v>0.1554044207921148</v>
       </c>
       <c r="L18">
-        <v>0.4860474322401558</v>
+        <v>0.05630407735570842</v>
       </c>
       <c r="M18">
-        <v>0.3179783493442088</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8537038997735706</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.080923532465206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8981878254361675</v>
+        <v>3.470024747366097</v>
       </c>
       <c r="C19">
-        <v>0.6344863882021627</v>
+        <v>0.9540176305307568</v>
       </c>
       <c r="D19">
-        <v>0.2199216886713202</v>
+        <v>0.384697860008302</v>
       </c>
       <c r="E19">
-        <v>0.02497954281580039</v>
+        <v>0.1062089216608513</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008899855569288155</v>
+        <v>0.3344353705346563</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02616833340621127</v>
       </c>
       <c r="I19">
-        <v>13.93492405913969</v>
+        <v>0.002926971276547619</v>
       </c>
       <c r="J19">
-        <v>0.0279538484071864</v>
+        <v>0.2780248994016361</v>
       </c>
       <c r="K19">
-        <v>1.521933125983452</v>
+        <v>0.171177833043739</v>
       </c>
       <c r="L19">
-        <v>0.4834189133024012</v>
+        <v>0.05282367394566179</v>
       </c>
       <c r="M19">
-        <v>0.316045249693282</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9377027260285189</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.24026412159337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9281795940372035</v>
+        <v>3.518554622979707</v>
       </c>
       <c r="C20">
-        <v>0.6587699687782447</v>
+        <v>0.9952805874361559</v>
       </c>
       <c r="D20">
-        <v>0.2247301622821709</v>
+        <v>0.5068195123908197</v>
       </c>
       <c r="E20">
-        <v>0.02493687264991795</v>
+        <v>0.1706978721368735</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008857493204335919</v>
+        <v>0.4252002198824414</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0005534082145266517</v>
       </c>
       <c r="I20">
-        <v>14.39745065109565</v>
+        <v>0.003685179261356808</v>
       </c>
       <c r="J20">
-        <v>0.02901804445114209</v>
+        <v>0.322035317555617</v>
       </c>
       <c r="K20">
-        <v>1.575301363670405</v>
+        <v>0.1964761442280754</v>
       </c>
       <c r="L20">
-        <v>0.4953109922322199</v>
+        <v>0.07853648846996109</v>
       </c>
       <c r="M20">
-        <v>0.3248238037065505</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.119403702731702</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.524977033675441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.035941406974871</v>
+        <v>3.94818959424066</v>
       </c>
       <c r="C21">
-        <v>0.7422147075828036</v>
+        <v>1.113814733600236</v>
       </c>
       <c r="D21">
-        <v>0.2415191458072599</v>
+        <v>0.5622906287965463</v>
       </c>
       <c r="E21">
-        <v>0.02482530296805763</v>
+        <v>0.1903845879477792</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008715499084253043</v>
+        <v>0.4615511619672219</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001631102491810532</v>
       </c>
       <c r="I21">
-        <v>15.98324503107244</v>
+        <v>0.005518467087457957</v>
       </c>
       <c r="J21">
-        <v>0.03266687134668089</v>
+        <v>0.3332408984820887</v>
       </c>
       <c r="K21">
-        <v>1.762674802612025</v>
+        <v>0.1912020160134809</v>
       </c>
       <c r="L21">
-        <v>0.5364711290382189</v>
+        <v>0.08804943012058075</v>
       </c>
       <c r="M21">
-        <v>0.3558221169738616</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.270135121587217</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.625889176105261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.112322343031252</v>
+        <v>4.233600107624284</v>
       </c>
       <c r="C22">
-        <v>0.7983651593648062</v>
+        <v>1.186916652245486</v>
       </c>
       <c r="D22">
-        <v>0.2530232551506799</v>
+        <v>0.593333515257342</v>
       </c>
       <c r="E22">
-        <v>0.02477718299636233</v>
+        <v>0.1998931342145305</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008622663019090717</v>
+        <v>0.4838875203795112</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002728455408216868</v>
       </c>
       <c r="I22">
-        <v>17.04775102452163</v>
+        <v>0.006695149727927507</v>
       </c>
       <c r="J22">
-        <v>0.03511714224046258</v>
+        <v>0.3399181743276358</v>
       </c>
       <c r="K22">
-        <v>1.892028214931031</v>
+        <v>0.187791368412995</v>
       </c>
       <c r="L22">
-        <v>0.5643938658074319</v>
+        <v>0.09232443254015621</v>
       </c>
       <c r="M22">
-        <v>0.3773540712400916</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.360982870097828</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.687466026042131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.070960101559194</v>
+        <v>4.081865386677464</v>
       </c>
       <c r="C23">
-        <v>0.768232790197203</v>
+        <v>1.143566305455124</v>
       </c>
       <c r="D23">
-        <v>0.2468305199079026</v>
+        <v>0.5768668329042725</v>
       </c>
       <c r="E23">
-        <v>0.02480052013765999</v>
+        <v>0.1949009250370572</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008672234425535746</v>
+        <v>0.4738468234843936</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002112852364358098</v>
       </c>
       <c r="I23">
-        <v>16.47672642754566</v>
+        <v>0.005767830761270965</v>
       </c>
       <c r="J23">
-        <v>0.0338026272920402</v>
+        <v>0.3373196583514186</v>
       </c>
       <c r="K23">
-        <v>1.822297424695023</v>
+        <v>0.1906089006638574</v>
       </c>
       <c r="L23">
-        <v>0.5493887993432907</v>
+        <v>0.09010432783701106</v>
       </c>
       <c r="M23">
-        <v>0.3657350054112598</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.311601377867078</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.660609213862188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9265080086465787</v>
+        <v>3.506481601842324</v>
       </c>
       <c r="C24">
-        <v>0.6574299959525831</v>
+        <v>0.9872279496862006</v>
       </c>
       <c r="D24">
-        <v>0.2244638620475428</v>
+        <v>0.5148624669076298</v>
       </c>
       <c r="E24">
-        <v>0.02493909885157741</v>
+        <v>0.1759338259018612</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008859817594909242</v>
+        <v>0.4342312615920463</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0004708019962578192</v>
       </c>
       <c r="I24">
-        <v>14.37194178247245</v>
+        <v>0.003235249651575067</v>
       </c>
       <c r="J24">
-        <v>0.02895935388380266</v>
+        <v>0.3267500504176439</v>
       </c>
       <c r="K24">
-        <v>1.572342369875173</v>
+        <v>0.2005553246465048</v>
       </c>
       <c r="L24">
-        <v>0.4946536981406382</v>
+        <v>0.08162437037854531</v>
       </c>
       <c r="M24">
-        <v>0.3243364272885501</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.126500960551596</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.553989028476366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7917208605200585</v>
+        <v>2.885888456196994</v>
       </c>
       <c r="C25">
-        <v>0.5434191037816447</v>
+        <v>0.81992306235</v>
       </c>
       <c r="D25">
-        <v>0.2022536306956084</v>
+        <v>0.4490345920142573</v>
       </c>
       <c r="E25">
-        <v>0.02518830229994062</v>
+        <v>0.1556001173085626</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0009063767194031275</v>
+        <v>0.3945784568451245</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.07542179958098E-05</v>
       </c>
       <c r="I25">
-        <v>12.19506392100115</v>
+        <v>0.001567976573588759</v>
       </c>
       <c r="J25">
-        <v>0.02394943943943062</v>
+        <v>0.317152077851901</v>
       </c>
       <c r="K25">
-        <v>1.326907432961519</v>
+        <v>0.2132098995087794</v>
       </c>
       <c r="L25">
-        <v>0.439236309728912</v>
+        <v>0.07250135103648248</v>
       </c>
       <c r="M25">
-        <v>0.2842135633773495</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.9276135395893306</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.449253093100964</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.429794980413646</v>
+        <v>2.430682602947456</v>
       </c>
       <c r="C2">
-        <v>0.6874090781680025</v>
+        <v>0.7150198578596019</v>
       </c>
       <c r="D2">
-        <v>0.4016240249580534</v>
+        <v>0.4010369271775716</v>
       </c>
       <c r="E2">
-        <v>0.1409016587311065</v>
+        <v>0.1405855214931684</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3724253395310697</v>
+        <v>0.3348188804647592</v>
       </c>
       <c r="H2">
-        <v>0.0007012780804822594</v>
+        <v>0.0006354480099903803</v>
       </c>
       <c r="I2">
-        <v>0.0004668438481325587</v>
+        <v>0.0006391705112420709</v>
       </c>
       <c r="J2">
-        <v>0.3139522846038503</v>
+        <v>0.3391139412188622</v>
       </c>
       <c r="K2">
-        <v>0.2266536207383592</v>
+        <v>0.2104100815749632</v>
       </c>
       <c r="L2">
-        <v>0.06591693385887254</v>
+        <v>0.1212750272218894</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04671915154586515</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.06583875591401522</v>
       </c>
       <c r="O2">
-        <v>0.7794680371127995</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.395136429280484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7877747737992564</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.331883996079327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.119207173786776</v>
+        <v>2.122133723209572</v>
       </c>
       <c r="C3">
-        <v>0.6039026331758635</v>
+        <v>0.6212113663972616</v>
       </c>
       <c r="D3">
-        <v>0.3696925390056123</v>
+        <v>0.3696823676020387</v>
       </c>
       <c r="E3">
-        <v>0.1308282657023625</v>
+        <v>0.1309470130710331</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3558809577359057</v>
+        <v>0.3220822133394492</v>
       </c>
       <c r="H3">
-        <v>0.001710763368269252</v>
+        <v>0.001553343498010729</v>
       </c>
       <c r="I3">
-        <v>0.0004786780240570998</v>
+        <v>0.0005058105280757452</v>
       </c>
       <c r="J3">
-        <v>0.3111347503614041</v>
+        <v>0.3351915299363384</v>
       </c>
       <c r="K3">
-        <v>0.2351031712714757</v>
+        <v>0.2194269462574319</v>
       </c>
       <c r="L3">
-        <v>0.06132977631549608</v>
+        <v>0.1271327782558362</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04879076026217621</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06163125138095182</v>
       </c>
       <c r="O3">
-        <v>0.6803791978626279</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.353839525786597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6867557000730926</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.299899077741102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.92808044127446</v>
+        <v>1.932162197225523</v>
       </c>
       <c r="C4">
-        <v>0.5529558465197226</v>
+        <v>0.5641508604435046</v>
       </c>
       <c r="D4">
-        <v>0.3502452152815607</v>
+        <v>0.3505909328252841</v>
       </c>
       <c r="E4">
-        <v>0.1246375553474621</v>
+        <v>0.1250242337837975</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3461854609293695</v>
+        <v>0.3147107086847214</v>
       </c>
       <c r="H4">
-        <v>0.002582953218191575</v>
+        <v>0.002347186164944448</v>
       </c>
       <c r="I4">
-        <v>0.0006801788396288977</v>
+        <v>0.000585453093116417</v>
       </c>
       <c r="J4">
-        <v>0.3097196413394059</v>
+        <v>0.3328856925365002</v>
       </c>
       <c r="K4">
-        <v>0.240634183691709</v>
+        <v>0.2252317304331246</v>
       </c>
       <c r="L4">
-        <v>0.05848658325762557</v>
+        <v>0.1309366571407082</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05056689831028116</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0590174297775512</v>
       </c>
       <c r="O4">
-        <v>0.6195873665594078</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.33011474645356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6247908026500042</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.281461792167846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.849931922349867</v>
+        <v>1.854465526637995</v>
       </c>
       <c r="C5">
-        <v>0.5333076149969713</v>
+        <v>0.5420544499605455</v>
       </c>
       <c r="D5">
-        <v>0.3423228346378551</v>
+        <v>0.3428152983470909</v>
       </c>
       <c r="E5">
-        <v>0.1220892790965387</v>
+        <v>0.1225862349105782</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3418424951944843</v>
+        <v>0.3113420780954641</v>
       </c>
       <c r="H5">
-        <v>0.00300012840456243</v>
+        <v>0.002727068597500826</v>
       </c>
       <c r="I5">
-        <v>0.0008767276221370857</v>
+        <v>0.0007368495311252943</v>
       </c>
       <c r="J5">
-        <v>0.3089564559647471</v>
+        <v>0.3317123338243775</v>
       </c>
       <c r="K5">
-        <v>0.2426871589135366</v>
+        <v>0.2274026852626108</v>
       </c>
       <c r="L5">
-        <v>0.05730374180105891</v>
+        <v>0.1323888934622151</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05136906287711129</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.05792783496845111</v>
       </c>
       <c r="O5">
-        <v>0.5950355346805836</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.319222947025764</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5997586301804532</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.272702117871006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.836768312385402</v>
+        <v>1.841379493754516</v>
       </c>
       <c r="C6">
-        <v>0.5313226447843533</v>
+        <v>0.5396542112592613</v>
       </c>
       <c r="D6">
-        <v>0.3409676980962928</v>
+        <v>0.3414859742768641</v>
       </c>
       <c r="E6">
-        <v>0.121637690366267</v>
+        <v>0.1221539367710207</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3405150970180628</v>
+        <v>0.3102147796806491</v>
       </c>
       <c r="H6">
-        <v>0.003074612782690167</v>
+        <v>0.002794914892724765</v>
       </c>
       <c r="I6">
-        <v>0.001002931560696751</v>
+        <v>0.0008715806967636297</v>
       </c>
       <c r="J6">
-        <v>0.3085132708588674</v>
+        <v>0.3312034836477977</v>
       </c>
       <c r="K6">
-        <v>0.2426868577867118</v>
+        <v>0.2274512250256606</v>
       </c>
       <c r="L6">
-        <v>0.05708652059757036</v>
+        <v>0.1324513282403608</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05145235894663314</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.0577267503600094</v>
       </c>
       <c r="O6">
-        <v>0.591221499182204</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.315466345760129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5958576495889645</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.269394642238893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.92653395712324</v>
+        <v>1.930658432565139</v>
       </c>
       <c r="C7">
-        <v>0.5561762410202391</v>
+        <v>0.5667689593106218</v>
       </c>
       <c r="D7">
-        <v>0.3500246306469279</v>
+        <v>0.3503693601472264</v>
       </c>
       <c r="E7">
-        <v>0.1245262933586559</v>
+        <v>0.1249088970438201</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.34445332752761</v>
+        <v>0.315565432454072</v>
       </c>
       <c r="H7">
-        <v>0.002592334383158423</v>
+        <v>0.002359318588437298</v>
       </c>
       <c r="I7">
-        <v>0.0009152116550259493</v>
+        <v>0.0008632396799974629</v>
       </c>
       <c r="J7">
-        <v>0.3088337766846223</v>
+        <v>0.3279179112570603</v>
       </c>
       <c r="K7">
-        <v>0.2397189735809349</v>
+        <v>0.2240986358141068</v>
       </c>
       <c r="L7">
-        <v>0.0584153289852658</v>
+        <v>0.1303054821110958</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05034643584273635</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.05893774445686262</v>
       </c>
       <c r="O7">
-        <v>0.6199744173570068</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.324586602622773</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.625044200064508</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.273253249014459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.322126506542304</v>
+        <v>2.323840626267327</v>
       </c>
       <c r="C8">
-        <v>0.6631995346368456</v>
+        <v>0.6853753932705047</v>
       </c>
       <c r="D8">
-        <v>0.3904306928055377</v>
+        <v>0.3900297624904852</v>
       </c>
       <c r="E8">
-        <v>0.1373285353943103</v>
+        <v>0.1371425136612672</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3644106776378919</v>
+        <v>0.3365334267425126</v>
       </c>
       <c r="H8">
-        <v>0.0009981463413407665</v>
+        <v>0.0009120629056600382</v>
       </c>
       <c r="I8">
-        <v>0.0007062778221431643</v>
+        <v>0.0008880916464271138</v>
       </c>
       <c r="J8">
-        <v>0.3117625761732441</v>
+        <v>0.3232967877034696</v>
       </c>
       <c r="K8">
-        <v>0.2282639461761562</v>
+        <v>0.2113857221008253</v>
       </c>
       <c r="L8">
-        <v>0.06426784689097786</v>
+        <v>0.1222134607000598</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04678981344704969</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.06428839835422195</v>
       </c>
       <c r="O8">
-        <v>0.7462445765759895</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.373451025786679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7534946206966211</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.304047903050517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.095900516315055</v>
+        <v>3.091889663300492</v>
       </c>
       <c r="C9">
-        <v>0.8697109461198522</v>
+        <v>0.9182612104094403</v>
       </c>
       <c r="D9">
-        <v>0.4712811982778931</v>
+        <v>0.4694404449779768</v>
       </c>
       <c r="E9">
-        <v>0.1625710214567739</v>
+        <v>0.1612974812111041</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4105424152633788</v>
+        <v>0.3753127623023289</v>
       </c>
       <c r="H9">
-        <v>1.471927170726417E-05</v>
+        <v>1.284399370482525E-05</v>
       </c>
       <c r="I9">
-        <v>0.001617899194911843</v>
+        <v>0.001900254838927751</v>
       </c>
       <c r="J9">
-        <v>0.3217043207577461</v>
+        <v>0.3310735220656511</v>
       </c>
       <c r="K9">
-        <v>0.2103291503381151</v>
+        <v>0.1912861979428335</v>
       </c>
       <c r="L9">
-        <v>0.07567212251991862</v>
+        <v>0.1093430103360973</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0445075462534561</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.07470954517195594</v>
       </c>
       <c r="O9">
-        <v>0.9932239398193019</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.492825600471917</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.005233743083146</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.394686939923076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.670755847205896</v>
+        <v>3.662217360533475</v>
       </c>
       <c r="C10">
-        <v>1.025004130113189</v>
+        <v>1.089054246041314</v>
       </c>
       <c r="D10">
-        <v>0.5206553839342973</v>
+        <v>0.5178181425361856</v>
       </c>
       <c r="E10">
-        <v>0.17429783886449</v>
+        <v>0.1722685093337795</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.438149965754647</v>
+        <v>0.413383363114761</v>
       </c>
       <c r="H10">
-        <v>0.0009178300234875536</v>
+        <v>0.0008359982572008207</v>
       </c>
       <c r="I10">
-        <v>0.00357079334175836</v>
+        <v>0.003726641753859283</v>
       </c>
       <c r="J10">
-        <v>0.326172351580496</v>
+        <v>0.3115997558548074</v>
       </c>
       <c r="K10">
-        <v>0.1956423046975253</v>
+        <v>0.1738761989782951</v>
       </c>
       <c r="L10">
-        <v>0.0800177720206996</v>
+        <v>0.09946614685984656</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04368106280415596</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.07832663170428233</v>
       </c>
       <c r="O10">
-        <v>1.162082409796497</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.561223681901907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.176499332418572</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.426343619137157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.999349192754437</v>
+        <v>3.990856967752109</v>
       </c>
       <c r="C11">
-        <v>1.097475413013797</v>
+        <v>1.148765718776588</v>
       </c>
       <c r="D11">
-        <v>0.4507670635685912</v>
+        <v>0.448154848590903</v>
       </c>
       <c r="E11">
-        <v>0.1270981837721941</v>
+        <v>0.1252708633108632</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3785711925731619</v>
+        <v>0.389888276543445</v>
       </c>
       <c r="H11">
-        <v>0.01949230689553616</v>
+        <v>0.0193765373238115</v>
       </c>
       <c r="I11">
-        <v>0.004779759547442808</v>
+        <v>0.004917613862017944</v>
       </c>
       <c r="J11">
-        <v>0.2917091321541676</v>
+        <v>0.2450233106748811</v>
       </c>
       <c r="K11">
-        <v>0.1642873279806434</v>
+        <v>0.1458999963957943</v>
       </c>
       <c r="L11">
-        <v>0.05932376224400926</v>
+        <v>0.08878432250266055</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03467296415869292</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.05780428080579014</v>
       </c>
       <c r="O11">
-        <v>1.121334234708911</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.362969250345543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.132332468899193</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.216676584948516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.159058595847</v>
+        <v>4.151558096931467</v>
       </c>
       <c r="C12">
-        <v>1.119934980367191</v>
+        <v>1.158709925593712</v>
       </c>
       <c r="D12">
-        <v>0.3861836417585636</v>
+        <v>0.3839293411199236</v>
       </c>
       <c r="E12">
-        <v>0.09436420031167891</v>
+        <v>0.09280062676493017</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.32790472976491</v>
+        <v>0.3555806971786808</v>
       </c>
       <c r="H12">
-        <v>0.05803965063358874</v>
+        <v>0.05792489709555326</v>
       </c>
       <c r="I12">
-        <v>0.004952058336275655</v>
+        <v>0.00504914081254082</v>
       </c>
       <c r="J12">
-        <v>0.2642187422465128</v>
+        <v>0.2126603675666559</v>
       </c>
       <c r="K12">
-        <v>0.145067638514</v>
+        <v>0.1307457264084242</v>
       </c>
       <c r="L12">
-        <v>0.05701292947245928</v>
+        <v>0.08381413321915065</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02874419280279206</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.05569681713119046</v>
       </c>
       <c r="O12">
-        <v>1.050814455418553</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.198071656466709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.059007051844411</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.060800195393526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.195667123162309</v>
+        <v>4.189903704519793</v>
       </c>
       <c r="C13">
-        <v>1.110536182571423</v>
+        <v>1.137936889891705</v>
       </c>
       <c r="D13">
-        <v>0.3220652800806647</v>
+        <v>0.3202666361246855</v>
       </c>
       <c r="E13">
-        <v>0.07077512681667208</v>
+        <v>0.06953786953990004</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.2784764517826304</v>
+        <v>0.3039243863282692</v>
       </c>
       <c r="H13">
-        <v>0.1135533686308889</v>
+        <v>0.113468015906264</v>
       </c>
       <c r="I13">
-        <v>0.004628545905736026</v>
+        <v>0.004759337805522179</v>
       </c>
       <c r="J13">
-        <v>0.2390591114995075</v>
+        <v>0.2013521160537195</v>
       </c>
       <c r="K13">
-        <v>0.1323727696091153</v>
+        <v>0.1227214762781834</v>
       </c>
       <c r="L13">
-        <v>0.06828639566208849</v>
+        <v>0.08161944197928994</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02461499894537855</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0672413953029789</v>
       </c>
       <c r="O13">
-        <v>0.9550213189342784</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.040577690650949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9609370473178842</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9317881527795606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.165230855963785</v>
+        <v>4.161010167410325</v>
       </c>
       <c r="C14">
-        <v>1.09066492446226</v>
+        <v>1.110575768330477</v>
       </c>
       <c r="D14">
-        <v>0.278410746009186</v>
+        <v>0.2769596700616432</v>
       </c>
       <c r="E14">
-        <v>0.05973650707231748</v>
+        <v>0.05874439005927101</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2447474651853696</v>
+        <v>0.2619666979035102</v>
       </c>
       <c r="H14">
-        <v>0.1627156729740733</v>
+        <v>0.1626576345387321</v>
       </c>
       <c r="I14">
-        <v>0.004271432762624983</v>
+        <v>0.004469467128379812</v>
       </c>
       <c r="J14">
-        <v>0.2226027642862292</v>
+        <v>0.2003918333131693</v>
       </c>
       <c r="K14">
-        <v>0.1266724109239243</v>
+        <v>0.1200787643781993</v>
       </c>
       <c r="L14">
-        <v>0.08423481014639478</v>
+        <v>0.08105762764507532</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02263912108572619</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08339953901488073</v>
       </c>
       <c r="O14">
-        <v>0.8775379659180444</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.934550178510392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8820734524847822</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.851965861386148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.130798582163209</v>
+        <v>4.127109918149415</v>
       </c>
       <c r="C15">
-        <v>1.080536291861165</v>
+        <v>1.098794264517494</v>
       </c>
       <c r="D15">
-        <v>0.267342651319538</v>
+        <v>0.2660016161347727</v>
       </c>
       <c r="E15">
-        <v>0.05777171825942684</v>
+        <v>0.05686241691800964</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2360205598849774</v>
+        <v>0.2486775404669501</v>
       </c>
       <c r="H15">
-        <v>0.1751500068778427</v>
+        <v>0.1751031468965323</v>
       </c>
       <c r="I15">
-        <v>0.00419080526366411</v>
+        <v>0.004440719273245186</v>
       </c>
       <c r="J15">
-        <v>0.2187129736698026</v>
+        <v>0.2029173138207554</v>
       </c>
       <c r="K15">
-        <v>0.1261591202012742</v>
+        <v>0.1203307069747734</v>
       </c>
       <c r="L15">
-        <v>0.08887061353119918</v>
+        <v>0.08119464851190886</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02239653896250626</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08811706803810893</v>
       </c>
       <c r="O15">
-        <v>0.8536279610874971</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9078660438877506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.8578840585599821</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8346479394389092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.872781772669271</v>
+        <v>3.870514217187178</v>
       </c>
       <c r="C16">
-        <v>1.017500484041733</v>
+        <v>1.036946139709158</v>
       </c>
       <c r="D16">
-        <v>0.2606192195764834</v>
+        <v>0.2595555807863974</v>
       </c>
       <c r="E16">
-        <v>0.05810538106077257</v>
+        <v>0.0574562813542161</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2335547550904096</v>
+        <v>0.2251583539672666</v>
       </c>
       <c r="H16">
-        <v>0.1620920750996788</v>
+        <v>0.1620841559586381</v>
       </c>
       <c r="I16">
-        <v>0.003435752425230199</v>
+        <v>0.003819277498513962</v>
       </c>
       <c r="J16">
-        <v>0.2213722464913701</v>
+        <v>0.2306604547502502</v>
       </c>
       <c r="K16">
-        <v>0.1339767852076736</v>
+        <v>0.1286675928120773</v>
       </c>
       <c r="L16">
-        <v>0.08428929756919601</v>
+        <v>0.08392348387196069</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02451991887626814</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08387532478164772</v>
       </c>
       <c r="O16">
-        <v>0.8036237401115613</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9079894580904835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.8082813249338088</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8611071038373694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.691682659358378</v>
+        <v>3.689711347644732</v>
       </c>
       <c r="C17">
-        <v>0.9800016628412038</v>
+        <v>1.00338347125637</v>
       </c>
       <c r="D17">
-        <v>0.2779717498471825</v>
+        <v>0.2769542019556752</v>
       </c>
       <c r="E17">
-        <v>0.06328671758717075</v>
+        <v>0.06270822145550259</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.2492375759353038</v>
+        <v>0.2308287143908956</v>
       </c>
       <c r="H17">
-        <v>0.1241848728003703</v>
+        <v>0.1241863351727943</v>
       </c>
       <c r="I17">
-        <v>0.003096299309099493</v>
+        <v>0.003537414174495268</v>
       </c>
       <c r="J17">
-        <v>0.2320414896072336</v>
+        <v>0.2522298363738997</v>
       </c>
       <c r="K17">
-        <v>0.1428544110376988</v>
+        <v>0.1367088381898389</v>
       </c>
       <c r="L17">
-        <v>0.07099071139239044</v>
+        <v>0.08678021290149429</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02701396561736136</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0707065116956116</v>
       </c>
       <c r="O17">
-        <v>0.8059201878608206</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9634452166346392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.811467744568759</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9219638021847487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.557235060465018</v>
+        <v>3.554606188827279</v>
       </c>
       <c r="C18">
-        <v>0.9569140832173559</v>
+        <v>0.9882516742922007</v>
       </c>
       <c r="D18">
-        <v>0.3206545706135131</v>
+        <v>0.3194634701909962</v>
       </c>
       <c r="E18">
-        <v>0.0779537247804285</v>
+        <v>0.07726834132491156</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.28492986063074</v>
+        <v>0.2591264249628722</v>
       </c>
       <c r="H18">
-        <v>0.07133858774216861</v>
+        <v>0.07134033286718022</v>
       </c>
       <c r="I18">
-        <v>0.002750965233765612</v>
+        <v>0.003162532976634935</v>
       </c>
       <c r="J18">
-        <v>0.2520430866158136</v>
+        <v>0.275696182214368</v>
       </c>
       <c r="K18">
-        <v>0.1554044207921148</v>
+        <v>0.1470708805274894</v>
       </c>
       <c r="L18">
-        <v>0.05630407735570842</v>
+        <v>0.09071991092582365</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0305881011136826</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05596704064456937</v>
       </c>
       <c r="O18">
-        <v>0.8537038997735706</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.080923532465206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8609772570315002</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.031588156552928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.470024747366097</v>
+        <v>3.46604892591148</v>
       </c>
       <c r="C19">
-        <v>0.9540176305307568</v>
+        <v>0.9963135895322921</v>
       </c>
       <c r="D19">
-        <v>0.384697860008302</v>
+        <v>0.3831311873926779</v>
       </c>
       <c r="E19">
-        <v>0.1062089216608513</v>
+        <v>0.1052328396200259</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3344353705346563</v>
+        <v>0.301839435908434</v>
       </c>
       <c r="H19">
-        <v>0.02616833340621127</v>
+        <v>0.02616543073287403</v>
       </c>
       <c r="I19">
-        <v>0.002926971276547619</v>
+        <v>0.003359472594316237</v>
       </c>
       <c r="J19">
-        <v>0.2780248994016361</v>
+        <v>0.300580466663952</v>
       </c>
       <c r="K19">
-        <v>0.171177833043739</v>
+        <v>0.1594013169748756</v>
       </c>
       <c r="L19">
-        <v>0.05282367394566179</v>
+        <v>0.09547714331743684</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03512652471014377</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.05222379348993011</v>
       </c>
       <c r="O19">
-        <v>0.9377027260285189</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.24026412159337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.947407883882363</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.173708806534876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.518554622979707</v>
+        <v>3.511231382980441</v>
       </c>
       <c r="C20">
-        <v>0.9952805874361559</v>
+        <v>1.057264601516238</v>
       </c>
       <c r="D20">
-        <v>0.5068195123908197</v>
+        <v>0.5042688853380355</v>
       </c>
       <c r="E20">
-        <v>0.1706978721368735</v>
+        <v>0.1688957967568712</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4252002198824414</v>
+        <v>0.3889068324834284</v>
       </c>
       <c r="H20">
-        <v>0.0005534082145266517</v>
+        <v>0.0005082927043820185</v>
       </c>
       <c r="I20">
-        <v>0.003685179261356808</v>
+        <v>0.004061957963131135</v>
       </c>
       <c r="J20">
-        <v>0.322035317555617</v>
+        <v>0.3274782134774057</v>
       </c>
       <c r="K20">
-        <v>0.1964761442280754</v>
+        <v>0.1768817249943933</v>
       </c>
       <c r="L20">
-        <v>0.07853648846996109</v>
+        <v>0.1014177067066449</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.04319033992413246</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.07708288246873352</v>
       </c>
       <c r="O20">
-        <v>1.119403702731702</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.524977033675441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.133527836449844</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.411820680190914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.94818959424066</v>
+        <v>3.937265913240253</v>
       </c>
       <c r="C21">
-        <v>1.113814733600236</v>
+        <v>1.179473793968327</v>
       </c>
       <c r="D21">
-        <v>0.5622906287965463</v>
+        <v>0.5588234663978255</v>
       </c>
       <c r="E21">
-        <v>0.1903845879477792</v>
+        <v>0.1878220467548388</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4615511619672219</v>
+        <v>0.4826556897138801</v>
       </c>
       <c r="H21">
-        <v>0.001631102491810532</v>
+        <v>0.001425338608555204</v>
       </c>
       <c r="I21">
-        <v>0.005518467087457957</v>
+        <v>0.005614376934338416</v>
       </c>
       <c r="J21">
-        <v>0.3332408984820887</v>
+        <v>0.2562630157565593</v>
       </c>
       <c r="K21">
-        <v>0.1912020160134809</v>
+        <v>0.1632447273504543</v>
       </c>
       <c r="L21">
-        <v>0.08804943012058075</v>
+        <v>0.09420007336027947</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04276087304655718</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.08574921158823301</v>
       </c>
       <c r="O21">
-        <v>1.270135121587217</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.625889176105261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.284481541923441</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.422928511487356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.233600107624284</v>
+        <v>4.220313643852819</v>
       </c>
       <c r="C22">
-        <v>1.186916652245486</v>
+        <v>1.253243501001521</v>
       </c>
       <c r="D22">
-        <v>0.593333515257342</v>
+        <v>0.5893282772499333</v>
       </c>
       <c r="E22">
-        <v>0.1998931342145305</v>
+        <v>0.1968855056641878</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4838875203795112</v>
+        <v>0.5509689683604648</v>
       </c>
       <c r="H22">
-        <v>0.002728455408216868</v>
+        <v>0.002365551829717205</v>
       </c>
       <c r="I22">
-        <v>0.006695149727927507</v>
+        <v>0.006471960925359177</v>
       </c>
       <c r="J22">
-        <v>0.3399181743276358</v>
+        <v>0.2148299710508113</v>
       </c>
       <c r="K22">
-        <v>0.187791368412995</v>
+        <v>0.1541571286860286</v>
       </c>
       <c r="L22">
-        <v>0.09232443254015621</v>
+        <v>0.08970057815791144</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04257145041671428</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.08950963820646152</v>
       </c>
       <c r="O22">
-        <v>1.360982870097828</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.687466026042131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.375037455142916</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.421783121383271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.081865386677464</v>
+        <v>4.069754007879794</v>
       </c>
       <c r="C23">
-        <v>1.143566305455124</v>
+        <v>1.211062407828649</v>
       </c>
       <c r="D23">
-        <v>0.5768668329042725</v>
+        <v>0.573140148265594</v>
       </c>
       <c r="E23">
-        <v>0.1949009250370572</v>
+        <v>0.1921308005333024</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4738468234843936</v>
+        <v>0.5084694824013951</v>
       </c>
       <c r="H23">
-        <v>0.002112852364358098</v>
+        <v>0.001843744538126746</v>
       </c>
       <c r="I23">
-        <v>0.005767830761270965</v>
+        <v>0.005666505808235911</v>
       </c>
       <c r="J23">
-        <v>0.3373196583514186</v>
+        <v>0.2436096868220901</v>
       </c>
       <c r="K23">
-        <v>0.1906089006638574</v>
+        <v>0.1604365413641098</v>
       </c>
       <c r="L23">
-        <v>0.09010432783701106</v>
+        <v>0.09251642632613688</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04330393051572834</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.08757756648115844</v>
       </c>
       <c r="O23">
-        <v>1.311601377867078</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.660609213862188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.326156860619037</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.435393782328958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.506481601842324</v>
+        <v>3.499013833560525</v>
       </c>
       <c r="C24">
-        <v>0.9872279496862006</v>
+        <v>1.050260538475356</v>
       </c>
       <c r="D24">
-        <v>0.5148624669076298</v>
+        <v>0.5122561335878117</v>
       </c>
       <c r="E24">
-        <v>0.1759338259018612</v>
+        <v>0.1740817893965634</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4342312615920463</v>
+        <v>0.3965555098640863</v>
       </c>
       <c r="H24">
-        <v>0.0004708019962578192</v>
+        <v>0.0004237881844253444</v>
       </c>
       <c r="I24">
-        <v>0.003235249651575067</v>
+        <v>0.003511972041145839</v>
       </c>
       <c r="J24">
-        <v>0.3267500504176439</v>
+        <v>0.3323515822377203</v>
       </c>
       <c r="K24">
-        <v>0.2005553246465048</v>
+        <v>0.1802025956999582</v>
       </c>
       <c r="L24">
-        <v>0.08162437037854531</v>
+        <v>0.1026695682029022</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04443140199718165</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.08011716657523493</v>
       </c>
       <c r="O24">
-        <v>1.126500960551596</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.553989028476366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.140948134238002</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.438218927883867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.885888456196994</v>
+        <v>2.883527621616224</v>
       </c>
       <c r="C25">
-        <v>0.81992306235</v>
+        <v>0.8619795741010989</v>
       </c>
       <c r="D25">
-        <v>0.4490345920142573</v>
+        <v>0.4475971426798537</v>
       </c>
       <c r="E25">
-        <v>0.1556001173085626</v>
+        <v>0.1546349255290522</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3945784568451245</v>
+        <v>0.3579682463354885</v>
       </c>
       <c r="H25">
-        <v>3.07542179958098E-05</v>
+        <v>2.823684055264231E-05</v>
       </c>
       <c r="I25">
-        <v>0.001567976573588759</v>
+        <v>0.0019434628521946</v>
       </c>
       <c r="J25">
-        <v>0.317152077851901</v>
+        <v>0.3330317549715787</v>
       </c>
       <c r="K25">
-        <v>0.2132098995087794</v>
+        <v>0.1954588512661886</v>
       </c>
       <c r="L25">
-        <v>0.07250135103648248</v>
+        <v>0.1122216934946039</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04433950743954185</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.07182854260149796</v>
       </c>
       <c r="O25">
-        <v>0.9276135395893306</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.449253093100964</v>
+        <v>0.938457969721334</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.364203041457415</v>
       </c>
     </row>
   </sheetData>
